--- a/portfolios/portfolio-2025-05-30.xlsx
+++ b/portfolios/portfolio-2025-05-30.xlsx
@@ -1703,7 +1703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1256"/>
+  <dimension ref="A1:S1258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1797,6 +1797,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -25011,6 +25021,12 @@
       <c r="Q1009" t="n">
         <v>166.8999938964844</v>
       </c>
+      <c r="R1009" t="n">
+        <v>458.3204650878906</v>
+      </c>
+      <c r="S1009" t="n">
+        <v>92.39780426025391</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="3" t="n">
@@ -25064,6 +25080,12 @@
       <c r="Q1010" t="n">
         <v>163.5500030517578</v>
       </c>
+      <c r="R1010" t="n">
+        <v>458.7226867675781</v>
+      </c>
+      <c r="S1010" t="n">
+        <v>92.71390533447266</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="3" t="n">
@@ -25117,6 +25139,12 @@
       <c r="Q1011" t="n">
         <v>159.9900054931641</v>
       </c>
+      <c r="R1011" t="n">
+        <v>459.9882202148438</v>
+      </c>
+      <c r="S1011" t="n">
+        <v>91.43562316894531</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="3" t="n">
@@ -25170,6 +25198,12 @@
       <c r="Q1012" t="n">
         <v>166.1699981689453</v>
       </c>
+      <c r="R1012" t="n">
+        <v>456.397705078125</v>
+      </c>
+      <c r="S1012" t="n">
+        <v>96.29014587402344</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="3" t="n">
@@ -25223,6 +25257,12 @@
       <c r="Q1013" t="n">
         <v>166.7799987792969</v>
       </c>
+      <c r="R1013" t="n">
+        <v>459.7233276367188</v>
+      </c>
+      <c r="S1013" t="n">
+        <v>95.34580230712891</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="3" t="n">
@@ -25276,6 +25316,12 @@
       <c r="Q1014" t="n">
         <v>167.8699951171875</v>
       </c>
+      <c r="R1014" t="n">
+        <v>461.2046508789062</v>
+      </c>
+      <c r="S1014" t="n">
+        <v>95.39832305908203</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="3" t="n">
@@ -25329,6 +25375,12 @@
       <c r="Q1015" t="n">
         <v>160.3399963378906</v>
       </c>
+      <c r="R1015" t="n">
+        <v>458.5853576660156</v>
+      </c>
+      <c r="S1015" t="n">
+        <v>99.39670562744141</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="3" t="n">
@@ -25382,6 +25434,12 @@
       <c r="Q1016" t="n">
         <v>158.9600067138672</v>
       </c>
+      <c r="R1016" t="n">
+        <v>454.0137939453125</v>
+      </c>
+      <c r="S1016" t="n">
+        <v>99.06771087646484</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="3" t="n">
@@ -25435,6 +25493,12 @@
       <c r="Q1017" t="n">
         <v>160.2400054931641</v>
       </c>
+      <c r="R1017" t="n">
+        <v>450.3938598632812</v>
+      </c>
+      <c r="S1017" t="n">
+        <v>102.8213348388672</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="3" t="n">
@@ -25488,6 +25552,12 @@
       <c r="Q1018" t="n">
         <v>159.8999938964844</v>
       </c>
+      <c r="R1018" t="n">
+        <v>449.8543395996094</v>
+      </c>
+      <c r="S1018" t="n">
+        <v>102.9075469970703</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="3" t="n">
@@ -25541,6 +25611,12 @@
       <c r="Q1019" t="n">
         <v>159.6300048828125</v>
       </c>
+      <c r="R1019" t="n">
+        <v>449.6385192871094</v>
+      </c>
+      <c r="S1019" t="n">
+        <v>102.6578369140625</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="3" t="n">
@@ -25594,6 +25670,12 @@
       <c r="Q1020" t="n">
         <v>158.3999938964844</v>
       </c>
+      <c r="R1020" t="n">
+        <v>450.2957763671875</v>
+      </c>
+      <c r="S1020" t="n">
+        <v>106.1974105834961</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="3" t="n">
@@ -25647,6 +25729,12 @@
       <c r="Q1021" t="n">
         <v>154.6300048828125</v>
       </c>
+      <c r="R1021" t="n">
+        <v>451.2669982910156</v>
+      </c>
+      <c r="S1021" t="n">
+        <v>107.9691925048828</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="3" t="n">
@@ -25700,6 +25788,12 @@
       <c r="Q1022" t="n">
         <v>161.7799987792969</v>
       </c>
+      <c r="R1022" t="n">
+        <v>457.4866027832031</v>
+      </c>
+      <c r="S1022" t="n">
+        <v>105.1678466796875</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="3" t="n">
@@ -25753,6 +25847,12 @@
       <c r="Q1023" t="n">
         <v>161.2299957275391</v>
       </c>
+      <c r="R1023" t="n">
+        <v>458.7226867675781</v>
+      </c>
+      <c r="S1023" t="n">
+        <v>104.0818023681641</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="3" t="n">
@@ -25806,6 +25906,12 @@
       <c r="Q1024" t="n">
         <v>160.25</v>
       </c>
+      <c r="R1024" t="n">
+        <v>462.5584716796875</v>
+      </c>
+      <c r="S1024" t="n">
+        <v>101.512321472168</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="3" t="n">
@@ -25859,6 +25965,12 @@
       <c r="Q1025" t="n">
         <v>160.25</v>
       </c>
+      <c r="R1025" t="n">
+        <v>459.1838073730469</v>
+      </c>
+      <c r="S1025" t="n">
+        <v>104.3344879150391</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="3" t="n">
@@ -25912,6 +26024,12 @@
       <c r="Q1026" t="n">
         <v>157.5399932861328</v>
       </c>
+      <c r="R1026" t="n">
+        <v>458.124267578125</v>
+      </c>
+      <c r="S1026" t="n">
+        <v>104.6178817749023</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="3" t="n">
@@ -25965,6 +26083,12 @@
       <c r="Q1027" t="n">
         <v>159.4700012207031</v>
       </c>
+      <c r="R1027" t="n">
+        <v>458.2615966796875</v>
+      </c>
+      <c r="S1027" t="n">
+        <v>104.6248168945312</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="3" t="n">
@@ -26018,6 +26142,12 @@
       <c r="Q1028" t="n">
         <v>162.2100067138672</v>
       </c>
+      <c r="R1028" t="n">
+        <v>458.232177734375</v>
+      </c>
+      <c r="S1028" t="n">
+        <v>105.5186386108398</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="3" t="n">
@@ -26071,6 +26201,12 @@
       <c r="Q1029" t="n">
         <v>157.6900024414062</v>
       </c>
+      <c r="R1029" t="n">
+        <v>457.584716796875</v>
+      </c>
+      <c r="S1029" t="n">
+        <v>105.100471496582</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="3" t="n">
@@ -26124,6 +26260,12 @@
       <c r="Q1030" t="n">
         <v>164.3099975585938</v>
       </c>
+      <c r="R1030" t="n">
+        <v>456.8587646484375</v>
+      </c>
+      <c r="S1030" t="n">
+        <v>106.3083953857422</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="3" t="n">
@@ -26177,6 +26319,12 @@
       <c r="Q1031" t="n">
         <v>163.8999938964844</v>
       </c>
+      <c r="R1031" t="n">
+        <v>457.1824951171875</v>
+      </c>
+      <c r="S1031" t="n">
+        <v>107.2913970947266</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="3" t="n">
@@ -26230,6 +26378,12 @@
       <c r="Q1032" t="n">
         <v>171.8999938964844</v>
       </c>
+      <c r="R1032" t="n">
+        <v>453.3859558105469</v>
+      </c>
+      <c r="S1032" t="n">
+        <v>107.7928009033203</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="3" t="n">
@@ -26283,6 +26437,12 @@
       <c r="Q1033" t="n">
         <v>178.6900024414062</v>
       </c>
+      <c r="R1033" t="n">
+        <v>452.9935607910156</v>
+      </c>
+      <c r="S1033" t="n">
+        <v>109.1612777709961</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="3" t="n">
@@ -26336,6 +26496,12 @@
       <c r="Q1034" t="n">
         <v>177.1000061035156</v>
       </c>
+      <c r="R1034" t="n">
+        <v>451.5612487792969</v>
+      </c>
+      <c r="S1034" t="n">
+        <v>110.2453460693359</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="3" t="n">
@@ -26389,6 +26555,12 @@
       <c r="Q1035" t="n">
         <v>183.9600067138672</v>
       </c>
+      <c r="R1035" t="n">
+        <v>452.2578125</v>
+      </c>
+      <c r="S1035" t="n">
+        <v>111.7069625854492</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="3" t="n">
@@ -26442,6 +26614,12 @@
       <c r="Q1036" t="n">
         <v>181.9400024414062</v>
       </c>
+      <c r="R1036" t="n">
+        <v>451.6397705078125</v>
+      </c>
+      <c r="S1036" t="n">
+        <v>105.032096862793</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="3" t="n">
@@ -26495,6 +26673,12 @@
       <c r="Q1037" t="n">
         <v>181.6100006103516</v>
       </c>
+      <c r="R1037" t="n">
+        <v>454.9261779785156</v>
+      </c>
+      <c r="S1037" t="n">
+        <v>106.0111312866211</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="3" t="n">
@@ -26548,6 +26732,12 @@
       <c r="Q1038" t="n">
         <v>179.8300018310547</v>
       </c>
+      <c r="R1038" t="n">
+        <v>455.0733032226562</v>
+      </c>
+      <c r="S1038" t="n">
+        <v>105.9407730102539</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="3" t="n">
@@ -26601,6 +26791,12 @@
       <c r="Q1039" t="n">
         <v>177.5500030517578</v>
       </c>
+      <c r="R1039" t="n">
+        <v>459.68408203125</v>
+      </c>
+      <c r="S1039" t="n">
+        <v>106.6225280761719</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="3" t="n">
@@ -26654,6 +26850,12 @@
       <c r="Q1040" t="n">
         <v>159.4299926757812</v>
       </c>
+      <c r="R1040" t="n">
+        <v>467.0319213867188</v>
+      </c>
+      <c r="S1040" t="n">
+        <v>95.88981628417969</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="3" t="n">
@@ -26707,6 +26909,12 @@
       <c r="Q1041" t="n">
         <v>155.7700042724609</v>
       </c>
+      <c r="R1041" t="n">
+        <v>466.9632263183594</v>
+      </c>
+      <c r="S1041" t="n">
+        <v>94.3955078125</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="3" t="n">
@@ -26760,6 +26968,12 @@
       <c r="Q1042" t="n">
         <v>151.5800018310547</v>
       </c>
+      <c r="R1042" t="n">
+        <v>465.9037170410156</v>
+      </c>
+      <c r="S1042" t="n">
+        <v>90.87870788574219</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="3" t="n">
@@ -26813,6 +27027,12 @@
       <c r="Q1043" t="n">
         <v>155.8699951171875</v>
       </c>
+      <c r="R1043" t="n">
+        <v>465.5799865722656</v>
+      </c>
+      <c r="S1043" t="n">
+        <v>96.81930541992188</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="3" t="n">
@@ -26866,6 +27086,12 @@
       <c r="Q1044" t="n">
         <v>154</v>
       </c>
+      <c r="R1044" t="n">
+        <v>491.7731018066406</v>
+      </c>
+      <c r="S1044" t="n">
+        <v>95.09807586669922</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="3" t="n">
@@ -26919,6 +27145,12 @@
       <c r="Q1045" t="n">
         <v>144.6300048828125</v>
       </c>
+      <c r="R1045" t="n">
+        <v>505.4190368652344</v>
+      </c>
+      <c r="S1045" t="n">
+        <v>90.16128540039062</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="3" t="n">
@@ -26972,6 +27204,12 @@
       <c r="Q1046" t="n">
         <v>138.3200073242188</v>
       </c>
+      <c r="R1046" t="n">
+        <v>511.5013732910156</v>
+      </c>
+      <c r="S1046" t="n">
+        <v>87.60965728759766</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="3" t="n">
@@ -27025,6 +27263,12 @@
       <c r="Q1047" t="n">
         <v>139.9900054931641</v>
       </c>
+      <c r="R1047" t="n">
+        <v>514.8367309570312</v>
+      </c>
+      <c r="S1047" t="n">
+        <v>88.652099609375</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="3" t="n">
@@ -27078,6 +27322,12 @@
       <c r="Q1048" t="n">
         <v>139.75</v>
       </c>
+      <c r="R1048" t="n">
+        <v>517.6228637695312</v>
+      </c>
+      <c r="S1048" t="n">
+        <v>88.42418670654297</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="3" t="n">
@@ -27131,6 +27381,12 @@
       <c r="Q1049" t="n">
         <v>138.4400024414062</v>
       </c>
+      <c r="R1049" t="n">
+        <v>527.4525756835938</v>
+      </c>
+      <c r="S1049" t="n">
+        <v>84.710205078125</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="3" t="n">
@@ -27184,6 +27440,12 @@
       <c r="Q1050" t="n">
         <v>144.4799957275391</v>
       </c>
+      <c r="R1050" t="n">
+        <v>531.6317749023438</v>
+      </c>
+      <c r="S1050" t="n">
+        <v>91.28797149658203</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="3" t="n">
@@ -27237,6 +27499,12 @@
       <c r="Q1051" t="n">
         <v>132.5399932861328</v>
       </c>
+      <c r="R1051" t="n">
+        <v>538.43994140625</v>
+      </c>
+      <c r="S1051" t="n">
+        <v>82.27945709228516</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="3" t="n">
@@ -27290,6 +27558,12 @@
       <c r="Q1052" t="n">
         <v>132.5</v>
       </c>
+      <c r="R1052" t="n">
+        <v>538.3517456054688</v>
+      </c>
+      <c r="S1052" t="n">
+        <v>75.60757446289062</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="3" t="n">
@@ -27343,6 +27617,12 @@
       <c r="Q1053" t="n">
         <v>134.8200073242188</v>
       </c>
+      <c r="R1053" t="n">
+        <v>535.026123046875</v>
+      </c>
+      <c r="S1053" t="n">
+        <v>76.33985900878906</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="3" t="n">
@@ -27396,6 +27676,12 @@
       <c r="Q1054" t="n">
         <v>130.1799926757812</v>
       </c>
+      <c r="R1054" t="n">
+        <v>531.2786254882812</v>
+      </c>
+      <c r="S1054" t="n">
+        <v>76.31806182861328</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="3" t="n">
@@ -27449,6 +27735,12 @@
       <c r="Q1055" t="n">
         <v>128.6699981689453</v>
       </c>
+      <c r="R1055" t="n">
+        <v>538.0966186523438</v>
+      </c>
+      <c r="S1055" t="n">
+        <v>74.12614440917969</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="3" t="n">
@@ -27502,6 +27794,12 @@
       <c r="Q1056" t="n">
         <v>136.3200073242188</v>
       </c>
+      <c r="R1056" t="n">
+        <v>541.1476440429688</v>
+      </c>
+      <c r="S1056" t="n">
+        <v>79.18778228759766</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="3" t="n">
@@ -27555,6 +27853,12 @@
       <c r="Q1057" t="n">
         <v>134.2700042724609</v>
       </c>
+      <c r="R1057" t="n">
+        <v>541.1083984375</v>
+      </c>
+      <c r="S1057" t="n">
+        <v>80.05681610107422</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="3" t="n">
@@ -27608,6 +27912,12 @@
       <c r="Q1058" t="n">
         <v>136.7700042724609</v>
       </c>
+      <c r="R1058" t="n">
+        <v>546.3370971679688</v>
+      </c>
+      <c r="S1058" t="n">
+        <v>80.35310363769531</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="3" t="n">
@@ -27661,6 +27971,12 @@
       <c r="Q1059" t="n">
         <v>141.1300048828125</v>
       </c>
+      <c r="R1059" t="n">
+        <v>548.7994995117188</v>
+      </c>
+      <c r="S1059" t="n">
+        <v>83.31299591064453</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="3" t="n">
@@ -27714,6 +28030,12 @@
       <c r="Q1060" t="n">
         <v>140.75</v>
       </c>
+      <c r="R1060" t="n">
+        <v>552.52734375</v>
+      </c>
+      <c r="S1060" t="n">
+        <v>83.76584625244141</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="3" t="n">
@@ -27767,6 +28089,12 @@
       <c r="Q1061" t="n">
         <v>147.3600006103516</v>
       </c>
+      <c r="R1061" t="n">
+        <v>549.6530151367188</v>
+      </c>
+      <c r="S1061" t="n">
+        <v>88.20222473144531</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="3" t="n">
@@ -27820,6 +28148,12 @@
       <c r="Q1062" t="n">
         <v>148.5599975585938</v>
       </c>
+      <c r="R1062" t="n">
+        <v>549.49609375</v>
+      </c>
+      <c r="S1062" t="n">
+        <v>86.32343292236328</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="3" t="n">
@@ -27873,6 +28207,12 @@
       <c r="Q1063" t="n">
         <v>155.2799987792969</v>
       </c>
+      <c r="R1063" t="n">
+        <v>547.7891235351562</v>
+      </c>
+      <c r="S1063" t="n">
+        <v>87.32822418212891</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="3" t="n">
@@ -27926,6 +28266,12 @@
       <c r="Q1064" t="n">
         <v>156.3999938964844</v>
       </c>
+      <c r="R1064" t="n">
+        <v>546.4352416992188</v>
+      </c>
+      <c r="S1064" t="n">
+        <v>85.50294494628906</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="3" t="n">
@@ -27979,6 +28325,12 @@
       <c r="Q1065" t="n">
         <v>157.8099975585938</v>
       </c>
+      <c r="R1065" t="n">
+        <v>543.2469482421875</v>
+      </c>
+      <c r="S1065" t="n">
+        <v>86.54044342041016</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="3" t="n">
@@ -28032,6 +28384,12 @@
       <c r="Q1066" t="n">
         <v>151.6999969482422</v>
       </c>
+      <c r="R1066" t="n">
+        <v>546.4548950195312</v>
+      </c>
+      <c r="S1066" t="n">
+        <v>82.81357574462891</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="3" t="n">
@@ -28085,6 +28443,12 @@
       <c r="Q1067" t="n">
         <v>154.9799957275391</v>
       </c>
+      <c r="R1067" t="n">
+        <v>544.4732666015625</v>
+      </c>
+      <c r="S1067" t="n">
+        <v>83.96800231933594</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="3" t="n">
@@ -28138,6 +28502,12 @@
       <c r="Q1068" t="n">
         <v>149.9900054931641</v>
       </c>
+      <c r="R1068" t="n">
+        <v>547.5045166015625</v>
+      </c>
+      <c r="S1068" t="n">
+        <v>81.1478271484375</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="3" t="n">
@@ -28191,6 +28561,12 @@
       <c r="Q1069" t="n">
         <v>150.5</v>
       </c>
+      <c r="R1069" t="n">
+        <v>549.7706298828125</v>
+      </c>
+      <c r="S1069" t="n">
+        <v>81.2994384765625</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="3" t="n">
@@ -28244,6 +28620,12 @@
       <c r="Q1070" t="n">
         <v>146.3600006103516</v>
       </c>
+      <c r="R1070" t="n">
+        <v>553.27294921875</v>
+      </c>
+      <c r="S1070" t="n">
+        <v>79.78034973144531</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="3" t="n">
@@ -28297,6 +28679,12 @@
       <c r="Q1071" t="n">
         <v>145.4900054931641</v>
       </c>
+      <c r="R1071" t="n">
+        <v>556.0884399414062</v>
+      </c>
+      <c r="S1071" t="n">
+        <v>79.0084228515625</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="3" t="n">
@@ -28350,6 +28738,12 @@
       <c r="Q1072" t="n">
         <v>148.5599975585938</v>
       </c>
+      <c r="R1072" t="n">
+        <v>557.314697265625</v>
+      </c>
+      <c r="S1072" t="n">
+        <v>81.35591888427734</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="3" t="n">
@@ -28403,6 +28797,12 @@
       <c r="Q1073" t="n">
         <v>136.9400024414062</v>
       </c>
+      <c r="R1073" t="n">
+        <v>559.5540161132812</v>
+      </c>
+      <c r="S1073" t="n">
+        <v>75.87709808349609</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="3" t="n">
@@ -28456,6 +28856,12 @@
       <c r="Q1074" t="n">
         <v>140.8699951171875</v>
       </c>
+      <c r="R1074" t="n">
+        <v>567.0119018554688</v>
+      </c>
+      <c r="S1074" t="n">
+        <v>75.75025939941406</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="3" t="n">
@@ -28509,6 +28915,12 @@
       <c r="Q1075" t="n">
         <v>139.4400024414062</v>
       </c>
+      <c r="R1075" t="n">
+        <v>560.905517578125</v>
+      </c>
+      <c r="S1075" t="n">
+        <v>74.90599822998047</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="3" t="n">
@@ -28562,6 +28974,12 @@
       <c r="Q1076" t="n">
         <v>134.3500061035156</v>
       </c>
+      <c r="R1076" t="n">
+        <v>558.9720458984375</v>
+      </c>
+      <c r="S1076" t="n">
+        <v>72.717041015625</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="3" t="n">
@@ -28615,6 +29033,12 @@
       <c r="Q1077" t="n">
         <v>138.1499938964844</v>
       </c>
+      <c r="R1077" t="n">
+        <v>568.7776489257812</v>
+      </c>
+      <c r="S1077" t="n">
+        <v>72.76460266113281</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="3" t="n">
@@ -28668,6 +29092,12 @@
       <c r="Q1078" t="n">
         <v>142.8399963378906</v>
       </c>
+      <c r="R1078" t="n">
+        <v>564.4568481445312</v>
+      </c>
+      <c r="S1078" t="n">
+        <v>72.49210357666016</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="3" t="n">
@@ -28721,6 +29151,12 @@
       <c r="Q1079" t="n">
         <v>149.8600006103516</v>
       </c>
+      <c r="R1079" t="n">
+        <v>559.2975463867188</v>
+      </c>
+      <c r="S1079" t="n">
+        <v>75.98907470703125</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" s="3" t="n">
@@ -28774,6 +29210,12 @@
       <c r="Q1080" t="n">
         <v>150.7700042724609</v>
       </c>
+      <c r="R1080" t="n">
+        <v>560.5899047851562</v>
+      </c>
+      <c r="S1080" t="n">
+        <v>74.09938049316406</v>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" s="3" t="n">
@@ -28827,6 +29269,12 @@
       <c r="Q1081" t="n">
         <v>152.3099975585938</v>
       </c>
+      <c r="R1081" t="n">
+        <v>562.2076416015625</v>
+      </c>
+      <c r="S1081" t="n">
+        <v>76.27346038818359</v>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="3" t="n">
@@ -28880,6 +29328,12 @@
       <c r="Q1082" t="n">
         <v>152.0800018310547</v>
       </c>
+      <c r="R1082" t="n">
+        <v>565.177001953125</v>
+      </c>
+      <c r="S1082" t="n">
+        <v>75.15868377685547</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="3" t="n">
@@ -28933,6 +29387,12 @@
       <c r="Q1083" t="n">
         <v>150.8200073242188</v>
       </c>
+      <c r="R1083" t="n">
+        <v>559.3468627929688</v>
+      </c>
+      <c r="S1083" t="n">
+        <v>76.13969421386719</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="3" t="n">
@@ -28986,6 +29446,12 @@
       <c r="Q1084" t="n">
         <v>148.2899932861328</v>
       </c>
+      <c r="R1084" t="n">
+        <v>557.8473510742188</v>
+      </c>
+      <c r="S1084" t="n">
+        <v>75.12886047363281</v>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" s="3" t="n">
@@ -29039,6 +29505,12 @@
       <c r="Q1085" t="n">
         <v>156.7400054931641</v>
       </c>
+      <c r="R1085" t="n">
+        <v>557.5416259765625</v>
+      </c>
+      <c r="S1085" t="n">
+        <v>78.42874145507812</v>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="3" t="n">
@@ -29092,6 +29564,12 @@
       <c r="Q1086" t="n">
         <v>155.9499969482422</v>
       </c>
+      <c r="R1086" t="n">
+        <v>564.1905517578125</v>
+      </c>
+      <c r="S1086" t="n">
+        <v>76.85036468505859</v>
+      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="3" t="n">
@@ -29145,6 +29623,12 @@
       <c r="Q1087" t="n">
         <v>156.75</v>
       </c>
+      <c r="R1087" t="n">
+        <v>572.6644287109375</v>
+      </c>
+      <c r="S1087" t="n">
+        <v>77.93276214599609</v>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="3" t="n">
@@ -29198,6 +29682,12 @@
       <c r="Q1088" t="n">
         <v>158.3200073242188</v>
       </c>
+      <c r="R1088" t="n">
+        <v>570.809814453125</v>
+      </c>
+      <c r="S1088" t="n">
+        <v>78.62653350830078</v>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="3" t="n">
@@ -29251,6 +29741,12 @@
       <c r="Q1089" t="n">
         <v>162.0200042724609</v>
       </c>
+      <c r="R1089" t="n">
+        <v>570.129150390625</v>
+      </c>
+      <c r="S1089" t="n">
+        <v>79.88784790039062</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="3" t="n">
@@ -29304,6 +29800,12 @@
       <c r="Q1090" t="n">
         <v>167.4900054931641</v>
       </c>
+      <c r="R1090" t="n">
+        <v>569.5964965820312</v>
+      </c>
+      <c r="S1090" t="n">
+        <v>84.23632049560547</v>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="3" t="n">
@@ -29357,6 +29859,12 @@
       <c r="Q1091" t="n">
         <v>164.3500061035156</v>
       </c>
+      <c r="R1091" t="n">
+        <v>574.4893798828125</v>
+      </c>
+      <c r="S1091" t="n">
+        <v>82.21067810058594</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="3" t="n">
@@ -29410,6 +29918,12 @@
       <c r="Q1092" t="n">
         <v>164.0800018310547</v>
       </c>
+      <c r="R1092" t="n">
+        <v>576.65966796875</v>
+      </c>
+      <c r="S1092" t="n">
+        <v>81.11337280273438</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="3" t="n">
@@ -29463,6 +29977,12 @@
       <c r="Q1093" t="n">
         <v>159.75</v>
       </c>
+      <c r="R1093" t="n">
+        <v>597.6718139648438</v>
+      </c>
+      <c r="S1093" t="n">
+        <v>79.25470733642578</v>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="3" t="n">
@@ -29516,6 +30036,12 @@
       <c r="Q1094" t="n">
         <v>159.7799987792969</v>
       </c>
+      <c r="R1094" t="n">
+        <v>595.0477294921875</v>
+      </c>
+      <c r="S1094" t="n">
+        <v>80.91557312011719</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="3" t="n">
@@ -29569,6 +30095,12 @@
       <c r="Q1095" t="n">
         <v>162.8500061035156</v>
       </c>
+      <c r="R1095" t="n">
+        <v>597.6323852539062</v>
+      </c>
+      <c r="S1095" t="n">
+        <v>80.61839294433594</v>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="3" t="n">
@@ -29622,6 +30154,12 @@
       <c r="Q1096" t="n">
         <v>170.8999938964844</v>
       </c>
+      <c r="R1096" t="n">
+        <v>596.9517211914062</v>
+      </c>
+      <c r="S1096" t="n">
+        <v>81.0457763671875</v>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="3" t="n">
@@ -29675,6 +30213,12 @@
       <c r="Q1097" t="n">
         <v>170.9700012207031</v>
       </c>
+      <c r="R1097" t="n">
+        <v>597.3560791015625</v>
+      </c>
+      <c r="S1097" t="n">
+        <v>80.12142181396484</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="3" t="n">
@@ -29728,6 +30272,12 @@
       <c r="Q1098" t="n">
         <v>172.8000030517578</v>
       </c>
+      <c r="R1098" t="n">
+        <v>599.8322143554688</v>
+      </c>
+      <c r="S1098" t="n">
+        <v>80.51899719238281</v>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="3" t="n">
@@ -29781,6 +30331,12 @@
       <c r="Q1099" t="n">
         <v>171.0200042724609</v>
       </c>
+      <c r="R1099" t="n">
+        <v>596.9319458007812</v>
+      </c>
+      <c r="S1099" t="n">
+        <v>82.35778045654297</v>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="3" t="n">
@@ -29834,6 +30390,12 @@
       <c r="Q1100" t="n">
         <v>164.1799926757812</v>
       </c>
+      <c r="R1100" t="n">
+        <v>589.4149169921875</v>
+      </c>
+      <c r="S1100" t="n">
+        <v>81.56262969970703</v>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" s="3" t="n">
@@ -29887,6 +30449,12 @@
       <c r="Q1101" t="n">
         <v>167.8899993896484</v>
       </c>
+      <c r="R1101" t="n">
+        <v>596.004638671875</v>
+      </c>
+      <c r="S1101" t="n">
+        <v>82.38760375976562</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="3" t="n">
@@ -29940,6 +30508,12 @@
       <c r="Q1102" t="n">
         <v>165.2700042724609</v>
       </c>
+      <c r="R1102" t="n">
+        <v>602.6141357421875</v>
+      </c>
+      <c r="S1102" t="n">
+        <v>85.18056488037109</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="3" t="n">
@@ -29993,6 +30567,12 @@
       <c r="Q1103" t="n">
         <v>156.6399993896484</v>
       </c>
+      <c r="R1103" t="n">
+        <v>596.8234252929688</v>
+      </c>
+      <c r="S1103" t="n">
+        <v>75.89717864990234</v>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="3" t="n">
@@ -30046,6 +30626,12 @@
       <c r="Q1104" t="n">
         <v>156.1300048828125</v>
       </c>
+      <c r="R1104" t="n">
+        <v>604.547607421875</v>
+      </c>
+      <c r="S1104" t="n">
+        <v>73.69063568115234</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="3" t="n">
@@ -30099,6 +30685,12 @@
       <c r="Q1105" t="n">
         <v>156.25</v>
       </c>
+      <c r="R1105" t="n">
+        <v>601.3810424804688</v>
+      </c>
+      <c r="S1105" t="n">
+        <v>72.69669342041016</v>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" s="3" t="n">
@@ -30152,6 +30744,12 @@
       <c r="Q1106" t="n">
         <v>155.9700012207031</v>
       </c>
+      <c r="R1106" t="n">
+        <v>603.5414428710938</v>
+      </c>
+      <c r="S1106" t="n">
+        <v>72.39850616455078</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="3" t="n">
@@ -30205,6 +30803,12 @@
       <c r="Q1107" t="n">
         <v>157.8999938964844</v>
       </c>
+      <c r="R1107" t="n">
+        <v>606.3035888671875</v>
+      </c>
+      <c r="S1107" t="n">
+        <v>72.39850616455078</v>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" s="3" t="n">
@@ -30258,6 +30862,12 @@
       <c r="Q1108" t="n">
         <v>154.0899963378906</v>
       </c>
+      <c r="R1108" t="n">
+        <v>569.18212890625</v>
+      </c>
+      <c r="S1108" t="n">
+        <v>72.55754089355469</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="3" t="n">
@@ -30311,6 +30921,12 @@
       <c r="Q1109" t="n">
         <v>152.9100036621094</v>
       </c>
+      <c r="R1109" t="n">
+        <v>563.381591796875</v>
+      </c>
+      <c r="S1109" t="n">
+        <v>72.41838836669922</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="3" t="n">
@@ -30364,6 +30980,12 @@
       <c r="Q1110" t="n">
         <v>153.4400024414062</v>
       </c>
+      <c r="R1110" t="n">
+        <v>556.584716796875</v>
+      </c>
+      <c r="S1110" t="n">
+        <v>76.10591125488281</v>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="3" t="n">
@@ -30417,6 +31039,12 @@
       <c r="Q1111" t="n">
         <v>156.2299957275391</v>
       </c>
+      <c r="R1111" t="n">
+        <v>554.690673828125</v>
+      </c>
+      <c r="S1111" t="n">
+        <v>77.20917510986328</v>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="3" t="n">
@@ -30470,6 +31098,12 @@
       <c r="Q1112" t="n">
         <v>159.9199981689453</v>
       </c>
+      <c r="R1112" t="n">
+        <v>547.6668701171875</v>
+      </c>
+      <c r="S1112" t="n">
+        <v>74.99269104003906</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="3" t="n">
@@ -30523,6 +31157,12 @@
       <c r="Q1113" t="n">
         <v>166.25</v>
       </c>
+      <c r="R1113" t="n">
+        <v>539.4099731445312</v>
+      </c>
+      <c r="S1113" t="n">
+        <v>77.83535766601562</v>
+      </c>
     </row>
     <row r="1114">
       <c r="A1114" s="3" t="n">
@@ -30576,6 +31216,12 @@
       <c r="Q1114" t="n">
         <v>148.6000061035156</v>
       </c>
+      <c r="R1114" t="n">
+        <v>538.5615844726562</v>
+      </c>
+      <c r="S1114" t="n">
+        <v>75.98663330078125</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="3" t="n">
@@ -30629,6 +31275,12 @@
       <c r="Q1115" t="n">
         <v>144.0700073242188</v>
       </c>
+      <c r="R1115" t="n">
+        <v>538.6701049804688</v>
+      </c>
+      <c r="S1115" t="n">
+        <v>73.89935302734375</v>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" s="3" t="n">
@@ -30682,6 +31334,12 @@
       <c r="Q1116" t="n">
         <v>141.8600006103516</v>
       </c>
+      <c r="R1116" t="n">
+        <v>537.9795532226562</v>
+      </c>
+      <c r="S1116" t="n">
+        <v>74.34663391113281</v>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" s="3" t="n">
@@ -30735,6 +31393,12 @@
       <c r="Q1117" t="n">
         <v>140.7100067138672</v>
       </c>
+      <c r="R1117" t="n">
+        <v>535.7599487304688</v>
+      </c>
+      <c r="S1117" t="n">
+        <v>73.72045135498047</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="3" t="n">
@@ -30788,6 +31452,12 @@
       <c r="Q1118" t="n">
         <v>141.6600036621094</v>
       </c>
+      <c r="R1118" t="n">
+        <v>539.3606567382812</v>
+      </c>
+      <c r="S1118" t="n">
+        <v>75.93693542480469</v>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" s="3" t="n">
@@ -30841,6 +31511,12 @@
       <c r="Q1119" t="n">
         <v>145.1000061035156</v>
       </c>
+      <c r="R1119" t="n">
+        <v>544.3621826171875</v>
+      </c>
+      <c r="S1119" t="n">
+        <v>76.31462860107422</v>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" s="3" t="n">
@@ -30894,6 +31570,12 @@
       <c r="Q1120" t="n">
         <v>149.8200073242188</v>
       </c>
+      <c r="R1120" t="n">
+        <v>544.3818969726562</v>
+      </c>
+      <c r="S1120" t="n">
+        <v>78.72990417480469</v>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" s="3" t="n">
@@ -30947,6 +31629,12 @@
       <c r="Q1121" t="n">
         <v>147.9499969482422</v>
       </c>
+      <c r="R1121" t="n">
+        <v>556.9299926757812</v>
+      </c>
+      <c r="S1121" t="n">
+        <v>77.72602844238281</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="3" t="n">
@@ -31000,6 +31688,12 @@
       <c r="Q1122" t="n">
         <v>147.3500061035156</v>
       </c>
+      <c r="R1122" t="n">
+        <v>562.8685913085938</v>
+      </c>
+      <c r="S1122" t="n">
+        <v>75.70832824707031</v>
+      </c>
     </row>
     <row r="1123">
       <c r="A1123" s="3" t="n">
@@ -31053,6 +31747,12 @@
       <c r="Q1123" t="n">
         <v>143.6300048828125</v>
       </c>
+      <c r="R1123" t="n">
+        <v>558.3110961914062</v>
+      </c>
+      <c r="S1123" t="n">
+        <v>75.24118041992188</v>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" s="3" t="n">
@@ -31106,6 +31806,12 @@
       <c r="Q1124" t="n">
         <v>139.3000030517578</v>
       </c>
+      <c r="R1124" t="n">
+        <v>550.1922607421875</v>
+      </c>
+      <c r="S1124" t="n">
+        <v>73.40238952636719</v>
+      </c>
     </row>
     <row r="1125">
       <c r="A1125" s="3" t="n">
@@ -31159,6 +31865,12 @@
       <c r="Q1125" t="n">
         <v>138.8399963378906</v>
       </c>
+      <c r="R1125" t="n">
+        <v>531.70556640625</v>
+      </c>
+      <c r="S1125" t="n">
+        <v>74.33669281005859</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="3" t="n">
@@ -31212,6 +31924,12 @@
       <c r="Q1126" t="n">
         <v>134.8999938964844</v>
       </c>
+      <c r="R1126" t="n">
+        <v>527.601806640625</v>
+      </c>
+      <c r="S1126" t="n">
+        <v>69.62542724609375</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="3" t="n">
@@ -31265,6 +31983,12 @@
       <c r="Q1127" t="n">
         <v>138.9299926757812</v>
       </c>
+      <c r="R1127" t="n">
+        <v>523.7841186523438</v>
+      </c>
+      <c r="S1127" t="n">
+        <v>70.14227294921875</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="3" t="n">
@@ -31318,6 +32042,12 @@
       <c r="Q1128" t="n">
         <v>139.3899993896484</v>
       </c>
+      <c r="R1128" t="n">
+        <v>526.0530395507812</v>
+      </c>
+      <c r="S1128" t="n">
+        <v>69.74469757080078</v>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" s="3" t="n">
@@ -31371,6 +32101,12 @@
       <c r="Q1129" t="n">
         <v>137.6000061035156</v>
       </c>
+      <c r="R1129" t="n">
+        <v>527.5031127929688</v>
+      </c>
+      <c r="S1129" t="n">
+        <v>69.62542724609375</v>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" s="3" t="n">
@@ -31424,6 +32160,12 @@
       <c r="Q1130" t="n">
         <v>137.4900054931641</v>
       </c>
+      <c r="R1130" t="n">
+        <v>534.6847534179688</v>
+      </c>
+      <c r="S1130" t="n">
+        <v>72.68675231933594</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="3" t="n">
@@ -31477,6 +32219,12 @@
       <c r="Q1131" t="n">
         <v>138.3500061035156</v>
       </c>
+      <c r="R1131" t="n">
+        <v>534.891845703125</v>
+      </c>
+      <c r="S1131" t="n">
+        <v>72.19972991943359</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="3" t="n">
@@ -31530,6 +32278,12 @@
       <c r="Q1132" t="n">
         <v>141.1300048828125</v>
       </c>
+      <c r="R1132" t="n">
+        <v>514.8367309570312</v>
+      </c>
+      <c r="S1132" t="n">
+        <v>73.26323699951172</v>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" s="3" t="n">
@@ -31583,6 +32337,12 @@
       <c r="Q1133" t="n">
         <v>137.7200012207031</v>
       </c>
+      <c r="R1133" t="n">
+        <v>514.4026489257812</v>
+      </c>
+      <c r="S1133" t="n">
+        <v>72.24942779541016</v>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" s="3" t="n">
@@ -31636,6 +32396,12 @@
       <c r="Q1134" t="n">
         <v>136.2400054931641</v>
       </c>
+      <c r="R1134" t="n">
+        <v>518.6444702148438</v>
+      </c>
+      <c r="S1134" t="n">
+        <v>71.13620758056641</v>
+      </c>
     </row>
     <row r="1135">
       <c r="A1135" s="3" t="n">
@@ -31689,6 +32455,12 @@
       <c r="Q1135" t="n">
         <v>137.1799926757812</v>
       </c>
+      <c r="R1135" t="n">
+        <v>522.2550048828125</v>
+      </c>
+      <c r="S1135" t="n">
+        <v>73.43220520019531</v>
+      </c>
     </row>
     <row r="1136">
       <c r="A1136" s="3" t="n">
@@ -31742,6 +32514,12 @@
       <c r="Q1136" t="n">
         <v>142.0599975585938</v>
       </c>
+      <c r="R1136" t="n">
+        <v>516.52734375</v>
+      </c>
+      <c r="S1136" t="n">
+        <v>78.03414916992188</v>
+      </c>
     </row>
     <row r="1137">
       <c r="A1137" s="3" t="n">
@@ -31795,6 +32573,12 @@
       <c r="Q1137" t="n">
         <v>141.9799957275391</v>
       </c>
+      <c r="R1137" t="n">
+        <v>513.2117919921875</v>
+      </c>
+      <c r="S1137" t="n">
+        <v>77.86517333984375</v>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" s="3" t="n">
@@ -31848,6 +32632,12 @@
       <c r="Q1138" t="n">
         <v>143.9900054931641</v>
       </c>
+      <c r="R1138" t="n">
+        <v>513.7081298828125</v>
+      </c>
+      <c r="S1138" t="n">
+        <v>77.78566741943359</v>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" s="3" t="n">
@@ -31901,6 +32691,12 @@
       <c r="Q1139" t="n">
         <v>141.3600006103516</v>
       </c>
+      <c r="R1139" t="n">
+        <v>513.688232421875</v>
+      </c>
+      <c r="S1139" t="n">
+        <v>74.75414276123047</v>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" s="3" t="n">
@@ -31954,6 +32750,12 @@
       <c r="Q1140" t="n">
         <v>138.5899963378906</v>
       </c>
+      <c r="R1140" t="n">
+        <v>509.2709045410156</v>
+      </c>
+      <c r="S1140" t="n">
+        <v>76.12578582763672</v>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" s="3" t="n">
@@ -32007,6 +32809,12 @@
       <c r="Q1141" t="n">
         <v>130.8699951171875</v>
       </c>
+      <c r="R1141" t="n">
+        <v>506.2730102539062</v>
+      </c>
+      <c r="S1141" t="n">
+        <v>76.98057556152344</v>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" s="3" t="n">
@@ -32060,6 +32868,12 @@
       <c r="Q1142" t="n">
         <v>127.7399978637695</v>
       </c>
+      <c r="R1142" t="n">
+        <v>509.1815185546875</v>
+      </c>
+      <c r="S1142" t="n">
+        <v>74.67463684082031</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="3" t="n">
@@ -32113,6 +32927,12 @@
       <c r="Q1143" t="n">
         <v>130.1499938964844</v>
       </c>
+      <c r="R1143" t="n">
+        <v>500.5452575683594</v>
+      </c>
+      <c r="S1143" t="n">
+        <v>77.99461364746094</v>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" s="3" t="n">
@@ -32166,6 +32986,12 @@
       <c r="Q1144" t="n">
         <v>130.6000061035156</v>
       </c>
+      <c r="R1144" t="n">
+        <v>492.9413757324219</v>
+      </c>
+      <c r="S1144" t="n">
+        <v>75.35259246826172</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="3" t="n">
@@ -32219,6 +33045,12 @@
       <c r="Q1145" t="n">
         <v>126.9100036621094</v>
       </c>
+      <c r="R1145" t="n">
+        <v>491.0255432128906</v>
+      </c>
+      <c r="S1145" t="n">
+        <v>76.03054046630859</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="3" t="n">
@@ -32272,6 +33104,12 @@
       <c r="Q1146" t="n">
         <v>126.6900024414062</v>
       </c>
+      <c r="R1146" t="n">
+        <v>488.0475158691406</v>
+      </c>
+      <c r="S1146" t="n">
+        <v>77.59581756591797</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="3" t="n">
@@ -32325,6 +33163,12 @@
       <c r="Q1147" t="n">
         <v>125.0199966430664</v>
       </c>
+      <c r="R1147" t="n">
+        <v>487.01513671875</v>
+      </c>
+      <c r="S1147" t="n">
+        <v>77.57587432861328</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="3" t="n">
@@ -32378,6 +33222,12 @@
       <c r="Q1148" t="n">
         <v>121.4100036621094</v>
       </c>
+      <c r="R1148" t="n">
+        <v>479.4013366699219</v>
+      </c>
+      <c r="S1148" t="n">
+        <v>74.97372436523438</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="3" t="n">
@@ -32431,6 +33281,12 @@
       <c r="Q1149" t="n">
         <v>118.879997253418</v>
       </c>
+      <c r="R1149" t="n">
+        <v>476.1453857421875</v>
+      </c>
+      <c r="S1149" t="n">
+        <v>70.99573516845703</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="3" t="n">
@@ -32484,6 +33340,12 @@
       <c r="Q1150" t="n">
         <v>119.2099990844727</v>
       </c>
+      <c r="R1150" t="n">
+        <v>485.4367980957031</v>
+      </c>
+      <c r="S1150" t="n">
+        <v>71.57398986816406</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="3" t="n">
@@ -32537,6 +33399,12 @@
       <c r="Q1151" t="n">
         <v>124.5999984741211</v>
       </c>
+      <c r="R1151" t="n">
+        <v>482.9253234863281</v>
+      </c>
+      <c r="S1151" t="n">
+        <v>73.57794952392578</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="3" t="n">
@@ -32590,6 +33458,12 @@
       <c r="Q1152" t="n">
         <v>126.2900009155273</v>
       </c>
+      <c r="R1152" t="n">
+        <v>484.5533142089844</v>
+      </c>
+      <c r="S1152" t="n">
+        <v>73.60785675048828</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="3" t="n">
@@ -32643,6 +33517,12 @@
       <c r="Q1153" t="n">
         <v>125.0599975585938</v>
       </c>
+      <c r="R1153" t="n">
+        <v>486.3897705078125</v>
+      </c>
+      <c r="S1153" t="n">
+        <v>73.76737213134766</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="3" t="n">
@@ -32696,6 +33576,12 @@
       <c r="Q1154" t="n">
         <v>125.1900024414062</v>
       </c>
+      <c r="R1154" t="n">
+        <v>485.3871765136719</v>
+      </c>
+      <c r="S1154" t="n">
+        <v>73.17914581298828</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="3" t="n">
@@ -32749,6 +33635,12 @@
       <c r="Q1155" t="n">
         <v>122.4400024414062</v>
       </c>
+      <c r="R1155" t="n">
+        <v>479.8281860351562</v>
+      </c>
+      <c r="S1155" t="n">
+        <v>71.93290710449219</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="3" t="n">
@@ -32802,6 +33694,12 @@
       <c r="Q1156" t="n">
         <v>120.7900009155273</v>
       </c>
+      <c r="R1156" t="n">
+        <v>482.3793640136719</v>
+      </c>
+      <c r="S1156" t="n">
+        <v>72.01267242431641</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="3" t="n">
@@ -32855,6 +33753,12 @@
       <c r="Q1157" t="n">
         <v>120.629997253418</v>
       </c>
+      <c r="R1157" t="n">
+        <v>478.7164001464844</v>
+      </c>
+      <c r="S1157" t="n">
+        <v>72.22203826904297</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="3" t="n">
@@ -32908,6 +33812,12 @@
       <c r="Q1158" t="n">
         <v>125.370002746582</v>
       </c>
+      <c r="R1158" t="n">
+        <v>478.28955078125</v>
+      </c>
+      <c r="S1158" t="n">
+        <v>74.88400268554688</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="3" t="n">
@@ -32961,6 +33871,12 @@
       <c r="Q1159" t="n">
         <v>129.5500030517578</v>
       </c>
+      <c r="R1159" t="n">
+        <v>462.5854797363281</v>
+      </c>
+      <c r="S1159" t="n">
+        <v>77.74536895751953</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="3" t="n">
@@ -33014,6 +33930,12 @@
       <c r="Q1160" t="n">
         <v>127.3300018310547</v>
       </c>
+      <c r="R1160" t="n">
+        <v>460.5603942871094</v>
+      </c>
+      <c r="S1160" t="n">
+        <v>77.2867431640625</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="3" t="n">
@@ -33067,6 +33989,12 @@
       <c r="Q1161" t="n">
         <v>121.8399963378906</v>
       </c>
+      <c r="R1161" t="n">
+        <v>465.4145812988281</v>
+      </c>
+      <c r="S1161" t="n">
+        <v>76.80819702148438</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="3" t="n">
@@ -33120,6 +34048,12 @@
       <c r="Q1162" t="n">
         <v>116.0400009155273</v>
       </c>
+      <c r="R1162" t="n">
+        <v>464.6204223632812</v>
+      </c>
+      <c r="S1162" t="n">
+        <v>74.42538452148438</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="3" t="n">
@@ -33173,6 +34107,12 @@
       <c r="Q1163" t="n">
         <v>117.3199996948242</v>
       </c>
+      <c r="R1163" t="n">
+        <v>479.6197509765625</v>
+      </c>
+      <c r="S1163" t="n">
+        <v>74.22598266601562</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="3" t="n">
@@ -33226,6 +34166,12 @@
       <c r="Q1164" t="n">
         <v>116.0899963378906</v>
       </c>
+      <c r="R1164" t="n">
+        <v>480.9101867675781</v>
+      </c>
+      <c r="S1164" t="n">
+        <v>74.83415222167969</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="3" t="n">
@@ -33279,6 +34225,12 @@
       <c r="Q1165" t="n">
         <v>119.9599990844727</v>
       </c>
+      <c r="R1165" t="n">
+        <v>480.4237976074219</v>
+      </c>
+      <c r="S1165" t="n">
+        <v>75.92087554931641</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="3" t="n">
@@ -33332,6 +34284,12 @@
       <c r="Q1166" t="n">
         <v>118.4400024414062</v>
       </c>
+      <c r="R1166" t="n">
+        <v>483.2926025390625</v>
+      </c>
+      <c r="S1166" t="n">
+        <v>78.98163604736328</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="3" t="n">
@@ -33385,6 +34343,12 @@
       <c r="Q1167" t="n">
         <v>121.4599990844727</v>
       </c>
+      <c r="R1167" t="n">
+        <v>486.7272644042969</v>
+      </c>
+      <c r="S1167" t="n">
+        <v>80.05838775634766</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="3" t="n">
@@ -33438,6 +34402,12 @@
       <c r="Q1168" t="n">
         <v>122.2799987792969</v>
       </c>
+      <c r="R1168" t="n">
+        <v>502.5802612304688</v>
+      </c>
+      <c r="S1168" t="n">
+        <v>81.25477600097656</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="3" t="n">
@@ -33491,6 +34461,12 @@
       <c r="Q1169" t="n">
         <v>123.75</v>
       </c>
+      <c r="R1169" t="n">
+        <v>495.6811828613281</v>
+      </c>
+      <c r="S1169" t="n">
+        <v>82.99951171875</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="3" t="n">
@@ -33544,6 +34520,12 @@
       <c r="Q1170" t="n">
         <v>123.0400009155273</v>
       </c>
+      <c r="R1170" t="n">
+        <v>493.6362609863281</v>
+      </c>
+      <c r="S1170" t="n">
+        <v>80.98558807373047</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="3" t="n">
@@ -33597,6 +34579,12 @@
       <c r="Q1171" t="n">
         <v>122.8399963378906</v>
       </c>
+      <c r="R1171" t="n">
+        <v>493.318603515625</v>
+      </c>
+      <c r="S1171" t="n">
+        <v>79.44025421142578</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="3" t="n">
@@ -33650,6 +34638,12 @@
       <c r="Q1172" t="n">
         <v>115.0100021362305</v>
       </c>
+      <c r="R1172" t="n">
+        <v>499.9992980957031</v>
+      </c>
+      <c r="S1172" t="n">
+        <v>75.40243530273438</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="3" t="n">
@@ -33703,6 +34697,12 @@
       <c r="Q1173" t="n">
         <v>114.1699981689453</v>
       </c>
+      <c r="R1173" t="n">
+        <v>454.09814453125</v>
+      </c>
+      <c r="S1173" t="n">
+        <v>74.28581237792969</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="3" t="n">
@@ -33756,6 +34756,12 @@
       <c r="Q1174" t="n">
         <v>117.3499984741211</v>
       </c>
+      <c r="R1174" t="n">
+        <v>451.0307312011719</v>
+      </c>
+      <c r="S1174" t="n">
+        <v>74.92388153076172</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="3" t="n">
@@ -33809,6 +34815,12 @@
       <c r="Q1175" t="n">
         <v>118.8600006103516</v>
       </c>
+      <c r="R1175" t="n">
+        <v>456.281982421875</v>
+      </c>
+      <c r="S1175" t="n">
+        <v>80.48709106445312</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="3" t="n">
@@ -33862,6 +34874,12 @@
       <c r="Q1176" t="n">
         <v>115.9499969482422</v>
       </c>
+      <c r="R1176" t="n">
+        <v>459.5578308105469</v>
+      </c>
+      <c r="S1176" t="n">
+        <v>80.80612945556641</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="3" t="n">
@@ -33915,6 +34933,12 @@
       <c r="Q1177" t="n">
         <v>114.2699966430664</v>
       </c>
+      <c r="R1177" t="n">
+        <v>452.0830078125</v>
+      </c>
+      <c r="S1177" t="n">
+        <v>79.94871520996094</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="3" t="n">
@@ -33968,6 +34992,12 @@
       <c r="Q1178" t="n">
         <v>119.5</v>
       </c>
+      <c r="R1178" t="n">
+        <v>450.3557434082031</v>
+      </c>
+      <c r="S1178" t="n">
+        <v>79.66956329345703</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="3" t="n">
@@ -34021,6 +35051,12 @@
       <c r="Q1179" t="n">
         <v>112.0100021362305</v>
       </c>
+      <c r="R1179" t="n">
+        <v>446.5736694335938</v>
+      </c>
+      <c r="S1179" t="n">
+        <v>81.69345092773438</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="3" t="n">
@@ -34074,6 +35110,12 @@
       <c r="Q1180" t="n">
         <v>110.1600036621094</v>
       </c>
+      <c r="R1180" t="n">
+        <v>445.2335510253906</v>
+      </c>
+      <c r="S1180" t="n">
+        <v>82.58077239990234</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="3" t="n">
@@ -34127,6 +35169,12 @@
       <c r="Q1181" t="n">
         <v>107.5599975585938</v>
       </c>
+      <c r="R1181" t="n">
+        <v>441.1338195800781</v>
+      </c>
+      <c r="S1181" t="n">
+        <v>82.082275390625</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="3" t="n">
@@ -34180,6 +35228,12 @@
       <c r="Q1182" t="n">
         <v>110.4800033569336</v>
       </c>
+      <c r="R1182" t="n">
+        <v>444.9357604980469</v>
+      </c>
+      <c r="S1182" t="n">
+        <v>83.47806549072266</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="3" t="n">
@@ -34233,6 +35287,12 @@
       <c r="Q1183" t="n">
         <v>111.0999984741211</v>
       </c>
+      <c r="R1183" t="n">
+        <v>446.0673828125</v>
+      </c>
+      <c r="S1183" t="n">
+        <v>83.00948333740234</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="3" t="n">
@@ -34286,6 +35346,12 @@
       <c r="Q1184" t="n">
         <v>111.7200012207031</v>
       </c>
+      <c r="R1184" t="n">
+        <v>438.7315368652344</v>
+      </c>
+      <c r="S1184" t="n">
+        <v>81.32456207275391</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="3" t="n">
@@ -34339,6 +35405,12 @@
       <c r="Q1185" t="n">
         <v>111.8099975585938</v>
       </c>
+      <c r="R1185" t="n">
+        <v>431.53466796875</v>
+      </c>
+      <c r="S1185" t="n">
+        <v>83.04936218261719</v>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="3" t="n">
@@ -34392,6 +35464,12 @@
       <c r="Q1186" t="n">
         <v>113.0999984741211</v>
       </c>
+      <c r="R1186" t="n">
+        <v>420.0891418457031</v>
+      </c>
+      <c r="S1186" t="n">
+        <v>82.50101470947266</v>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="3" t="n">
@@ -34445,6 +35523,12 @@
       <c r="Q1187" t="n">
         <v>114.2799987792969</v>
       </c>
+      <c r="R1187" t="n">
+        <v>425.3999633789062</v>
+      </c>
+      <c r="S1187" t="n">
+        <v>86.31948852539062</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="3" t="n">
@@ -34498,6 +35582,12 @@
       <c r="Q1188" t="n">
         <v>114.6900024414062</v>
       </c>
+      <c r="R1188" t="n">
+        <v>429.7776489257812</v>
+      </c>
+      <c r="S1188" t="n">
+        <v>87.396240234375</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="3" t="n">
@@ -34551,6 +35641,12 @@
       <c r="Q1189" t="n">
         <v>114.1699981689453</v>
       </c>
+      <c r="R1189" t="n">
+        <v>433.0931701660156</v>
+      </c>
+      <c r="S1189" t="n">
+        <v>88.75214385986328</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="3" t="n">
@@ -34604,6 +35700,12 @@
       <c r="Q1190" t="n">
         <v>110.8399963378906</v>
       </c>
+      <c r="R1190" t="n">
+        <v>437.4906921386719</v>
+      </c>
+      <c r="S1190" t="n">
+        <v>85.76116943359375</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="3" t="n">
@@ -34657,6 +35759,12 @@
       <c r="Q1191" t="n">
         <v>108.1100006103516</v>
       </c>
+      <c r="R1191" t="n">
+        <v>437.0439758300781</v>
+      </c>
+      <c r="S1191" t="n">
+        <v>83.0892333984375</v>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" s="3" t="n">
@@ -34710,6 +35818,12 @@
       <c r="Q1192" t="n">
         <v>103.9599990844727</v>
       </c>
+      <c r="R1192" t="n">
+        <v>445.1739807128906</v>
+      </c>
+      <c r="S1192" t="n">
+        <v>80.04841613769531</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="3" t="n">
@@ -34763,6 +35877,12 @@
       <c r="Q1193" t="n">
         <v>104.7399978637695</v>
       </c>
+      <c r="R1193" t="n">
+        <v>438.2649841308594</v>
+      </c>
+      <c r="S1193" t="n">
+        <v>81.05538177490234</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="3" t="n">
@@ -34816,6 +35936,12 @@
       <c r="Q1194" t="n">
         <v>99.51000213623047</v>
       </c>
+      <c r="R1194" t="n">
+        <v>443.1886291503906</v>
+      </c>
+      <c r="S1194" t="n">
+        <v>75.94081115722656</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="3" t="n">
@@ -34869,6 +35995,12 @@
       <c r="Q1195" t="n">
         <v>99.86000061035156</v>
       </c>
+      <c r="R1195" t="n">
+        <v>447.0699768066406</v>
+      </c>
+      <c r="S1195" t="n">
+        <v>76.50909423828125</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="3" t="n">
@@ -34922,6 +36054,12 @@
       <c r="Q1196" t="n">
         <v>98.23000335693359</v>
       </c>
+      <c r="R1196" t="n">
+        <v>451.9400024414062</v>
+      </c>
+      <c r="S1196" t="n">
+        <v>75.55198669433594</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="3" t="n">
@@ -34975,6 +36113,12 @@
       <c r="Q1197" t="n">
         <v>100.75</v>
       </c>
+      <c r="R1197" t="n">
+        <v>448.8200073242188</v>
+      </c>
+      <c r="S1197" t="n">
+        <v>76.20999908447266</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="3" t="n">
@@ -35028,6 +36172,12 @@
       <c r="Q1198" t="n">
         <v>101.6699981689453</v>
       </c>
+      <c r="R1198" t="n">
+        <v>460.4200134277344</v>
+      </c>
+      <c r="S1198" t="n">
+        <v>79.05000305175781</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="3" t="n">
@@ -35081,6 +36231,12 @@
       <c r="Q1199" t="n">
         <v>98.84999847412109</v>
       </c>
+      <c r="R1199" t="n">
+        <v>461.5</v>
+      </c>
+      <c r="S1199" t="n">
+        <v>76.47000122070312</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="3" t="n">
@@ -35134,6 +36290,12 @@
       <c r="Q1200" t="n">
         <v>100.3099975585938</v>
       </c>
+      <c r="R1200" t="n">
+        <v>473.6499938964844</v>
+      </c>
+      <c r="S1200" t="n">
+        <v>79.01000213623047</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="3" t="n">
@@ -35187,6 +36349,12 @@
       <c r="Q1201" t="n">
         <v>96.62999725341797</v>
       </c>
+      <c r="R1201" t="n">
+        <v>479.1700134277344</v>
+      </c>
+      <c r="S1201" t="n">
+        <v>73.80999755859375</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="3" t="n">
@@ -35240,6 +36408,12 @@
       <c r="Q1202" t="n">
         <v>96.76000213623047</v>
       </c>
+      <c r="R1202" t="n">
+        <v>468.8800048828125</v>
+      </c>
+      <c r="S1202" t="n">
+        <v>73.36000061035156</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="3" t="n">
@@ -35293,6 +36467,12 @@
       <c r="Q1203" t="n">
         <v>100.7900009155273</v>
       </c>
+      <c r="R1203" t="n">
+        <v>461.5</v>
+      </c>
+      <c r="S1203" t="n">
+        <v>76.58999633789062</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="3" t="n">
@@ -35346,6 +36526,12 @@
       <c r="Q1204" t="n">
         <v>98.11000061035156</v>
       </c>
+      <c r="R1204" t="n">
+        <v>467.9299926757812</v>
+      </c>
+      <c r="S1204" t="n">
+        <v>75.26000213623047</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="3" t="n">
@@ -35399,6 +36585,12 @@
       <c r="Q1205" t="n">
         <v>100.9700012207031</v>
       </c>
+      <c r="R1205" t="n">
+        <v>466.1700134277344</v>
+      </c>
+      <c r="S1205" t="n">
+        <v>78.69000244140625</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="3" t="n">
@@ -35452,6 +36644,12 @@
       <c r="Q1206" t="n">
         <v>104.5899963378906</v>
       </c>
+      <c r="R1206" t="n">
+        <v>467.6099853515625</v>
+      </c>
+      <c r="S1206" t="n">
+        <v>78.30999755859375</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="3" t="n">
@@ -35505,6 +36703,12 @@
       <c r="Q1207" t="n">
         <v>103.5100021362305</v>
       </c>
+      <c r="R1207" t="n">
+        <v>469.2799987792969</v>
+      </c>
+      <c r="S1207" t="n">
+        <v>77.36000061035156</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="3" t="n">
@@ -35558,6 +36762,12 @@
       <c r="Q1208" t="n">
         <v>106.2300033569336</v>
       </c>
+      <c r="R1208" t="n">
+        <v>470.5499877929688</v>
+      </c>
+      <c r="S1208" t="n">
+        <v>77.93000030517578</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="3" t="n">
@@ -35611,6 +36821,12 @@
       <c r="Q1209" t="n">
         <v>107.1399993896484</v>
       </c>
+      <c r="R1209" t="n">
+        <v>466.739990234375</v>
+      </c>
+      <c r="S1209" t="n">
+        <v>77.55000305175781</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="3" t="n">
@@ -35664,6 +36880,12 @@
       <c r="Q1210" t="n">
         <v>106.4400024414062</v>
       </c>
+      <c r="R1210" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="S1210" t="n">
+        <v>75.83999633789062</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="3" t="n">
@@ -35717,6 +36939,12 @@
       <c r="Q1211" t="n">
         <v>113.8499984741211</v>
       </c>
+      <c r="R1211" t="n">
+        <v>434.9800109863281</v>
+      </c>
+      <c r="S1211" t="n">
+        <v>77.98999786376953</v>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" s="3" t="n">
@@ -35770,6 +36998,12 @@
       <c r="Q1212" t="n">
         <v>114.8099975585938</v>
       </c>
+      <c r="R1212" t="n">
+        <v>442.0700073242188</v>
+      </c>
+      <c r="S1212" t="n">
+        <v>77.66999816894531</v>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" s="3" t="n">
@@ -35823,6 +37057,12 @@
       <c r="Q1213" t="n">
         <v>110.1900024414062</v>
       </c>
+      <c r="R1213" t="n">
+        <v>445.1700134277344</v>
+      </c>
+      <c r="S1213" t="n">
+        <v>76.13999938964844</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="3" t="n">
@@ -35876,6 +37116,12 @@
       <c r="Q1214" t="n">
         <v>106.6500015258789</v>
       </c>
+      <c r="R1214" t="n">
+        <v>442.2799987792969</v>
+      </c>
+      <c r="S1214" t="n">
+        <v>74.80999755859375</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="3" t="n">
@@ -35929,6 +37175,12 @@
       <c r="Q1215" t="n">
         <v>103.2200012207031</v>
       </c>
+      <c r="R1215" t="n">
+        <v>441.489990234375</v>
+      </c>
+      <c r="S1215" t="n">
+        <v>72.61000061035156</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="3" t="n">
@@ -35982,6 +37234,12 @@
       <c r="Q1216" t="n">
         <v>102.7399978637695</v>
       </c>
+      <c r="R1216" t="n">
+        <v>446.7099914550781</v>
+      </c>
+      <c r="S1216" t="n">
+        <v>72.69999694824219</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="3" t="n">
@@ -36035,6 +37293,12 @@
       <c r="Q1217" t="n">
         <v>102.7799987792969</v>
       </c>
+      <c r="R1217" t="n">
+        <v>448.6400146484375</v>
+      </c>
+      <c r="S1217" t="n">
+        <v>72.83000183105469</v>
+      </c>
     </row>
     <row r="1218">
       <c r="A1218" s="3" t="n">
@@ -36088,6 +37352,12 @@
       <c r="Q1218" t="n">
         <v>102.9599990844727</v>
       </c>
+      <c r="R1218" t="n">
+        <v>452.8699951171875</v>
+      </c>
+      <c r="S1218" t="n">
+        <v>73.77999877929688</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="3" t="n">
@@ -36141,6 +37411,12 @@
       <c r="Q1219" t="n">
         <v>93.80000305175781</v>
       </c>
+      <c r="R1219" t="n">
+        <v>454.7799987792969</v>
+      </c>
+      <c r="S1219" t="n">
+        <v>65.22000122070312</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="3" t="n">
@@ -36194,6 +37470,12 @@
       <c r="Q1220" t="n">
         <v>85.76000213623047</v>
       </c>
+      <c r="R1220" t="n">
+        <v>432.1499938964844</v>
+      </c>
+      <c r="S1220" t="n">
+        <v>59.09000015258789</v>
+      </c>
     </row>
     <row r="1221">
       <c r="A1221" s="3" t="n">
@@ -36247,6 +37529,12 @@
       <c r="Q1221" t="n">
         <v>83.63999938964844</v>
       </c>
+      <c r="R1221" t="n">
+        <v>430.8200073242188</v>
+      </c>
+      <c r="S1221" t="n">
+        <v>62.20000076293945</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="3" t="n">
@@ -36300,6 +37588,12 @@
       <c r="Q1222" t="n">
         <v>78.20999908447266</v>
       </c>
+      <c r="R1222" t="n">
+        <v>443.3599853515625</v>
+      </c>
+      <c r="S1222" t="n">
+        <v>60.25</v>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="3" t="n">
@@ -36353,6 +37647,12 @@
       <c r="Q1223" t="n">
         <v>96.83999633789062</v>
       </c>
+      <c r="R1223" t="n">
+        <v>462.239990234375</v>
+      </c>
+      <c r="S1223" t="n">
+        <v>71.11000061035156</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="3" t="n">
@@ -36406,6 +37706,12 @@
       <c r="Q1224" t="n">
         <v>88.69999694824219</v>
       </c>
+      <c r="R1224" t="n">
+        <v>463.7000122070312</v>
+      </c>
+      <c r="S1224" t="n">
+        <v>66.43000030517578</v>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" s="3" t="n">
@@ -36459,6 +37765,12 @@
       <c r="Q1225" t="n">
         <v>93.40000152587891</v>
       </c>
+      <c r="R1225" t="n">
+        <v>474.8999938964844</v>
+      </c>
+      <c r="S1225" t="n">
+        <v>67.48000335693359</v>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" s="3" t="n">
@@ -36512,6 +37824,12 @@
       <c r="Q1226" t="n">
         <v>94.5</v>
       </c>
+      <c r="R1226" t="n">
+        <v>475.3399963378906</v>
+      </c>
+      <c r="S1226" t="n">
+        <v>67.86000061035156</v>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" s="3" t="n">
@@ -36565,6 +37883,12 @@
       <c r="Q1227" t="n">
         <v>95.29000091552734</v>
       </c>
+      <c r="R1227" t="n">
+        <v>469.5799865722656</v>
+      </c>
+      <c r="S1227" t="n">
+        <v>68.44000244140625</v>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" s="3" t="n">
@@ -36618,6 +37942,12 @@
       <c r="Q1228" t="n">
         <v>88.29000091552734</v>
       </c>
+      <c r="R1228" t="n">
+        <v>477.0799865722656</v>
+      </c>
+      <c r="S1228" t="n">
+        <v>65.13999938964844</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="3" t="n">
@@ -36671,6 +38001,12 @@
       <c r="Q1229" t="n">
         <v>87.5</v>
       </c>
+      <c r="R1229" t="n">
+        <v>464.0799865722656</v>
+      </c>
+      <c r="S1229" t="n">
+        <v>63.7599983215332</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="3" t="n">
@@ -36724,6 +38060,12 @@
       <c r="Q1230" t="n">
         <v>85.55999755859375</v>
       </c>
+      <c r="R1230" t="n">
+        <v>458.3299865722656</v>
+      </c>
+      <c r="S1230" t="n">
+        <v>62.38999938964844</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" s="3" t="n">
@@ -36777,6 +38119,12 @@
       <c r="Q1231" t="n">
         <v>86.26000213623047</v>
       </c>
+      <c r="R1231" t="n">
+        <v>462.0799865722656</v>
+      </c>
+      <c r="S1231" t="n">
+        <v>63.47999954223633</v>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" s="3" t="n">
@@ -36830,6 +38178,12 @@
       <c r="Q1232" t="n">
         <v>90.38999938964844</v>
       </c>
+      <c r="R1232" t="n">
+        <v>463.5499877929688</v>
+      </c>
+      <c r="S1232" t="n">
+        <v>66.73000335693359</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="3" t="n">
@@ -36883,6 +38237,12 @@
       <c r="Q1233" t="n">
         <v>94.47000122070312</v>
       </c>
+      <c r="R1233" t="n">
+        <v>466.8099975585938</v>
+      </c>
+      <c r="S1233" t="n">
+        <v>70.90000152587891</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="3" t="n">
@@ -36936,6 +38296,12 @@
       <c r="Q1234" t="n">
         <v>96.65000152587891</v>
       </c>
+      <c r="R1234" t="n">
+        <v>477.6400146484375</v>
+      </c>
+      <c r="S1234" t="n">
+        <v>71.41999816894531</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="3" t="n">
@@ -36989,6 +38355,12 @@
       <c r="Q1235" t="n">
         <v>96.38999938964844</v>
       </c>
+      <c r="R1235" t="n">
+        <v>476.2900085449219</v>
+      </c>
+      <c r="S1235" t="n">
+        <v>71.56999969482422</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="3" t="n">
@@ -37042,6 +38414,12 @@
       <c r="Q1236" t="n">
         <v>96.05999755859375</v>
       </c>
+      <c r="R1236" t="n">
+        <v>475.8800048828125</v>
+      </c>
+      <c r="S1236" t="n">
+        <v>70.90000152587891</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="3" t="n">
@@ -37095,6 +38473,12 @@
       <c r="Q1237" t="n">
         <v>97.34999847412109</v>
       </c>
+      <c r="R1237" t="n">
+        <v>477.75</v>
+      </c>
+      <c r="S1237" t="n">
+        <v>71.66999816894531</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="3" t="n">
@@ -37148,6 +38532,12 @@
       <c r="Q1238" t="n">
         <v>96.65000152587891</v>
       </c>
+      <c r="R1238" t="n">
+        <v>477.7200012207031</v>
+      </c>
+      <c r="S1238" t="n">
+        <v>71.73000335693359</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="3" t="n">
@@ -37201,6 +38591,12 @@
       <c r="Q1239" t="n">
         <v>98.80000305175781</v>
       </c>
+      <c r="R1239" t="n">
+        <v>472.7999877929688</v>
+      </c>
+      <c r="S1239" t="n">
+        <v>74.51999664306641</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="3" t="n">
@@ -37254,6 +38650,12 @@
       <c r="Q1240" t="n">
         <v>100.5899963378906</v>
       </c>
+      <c r="R1240" t="n">
+        <v>471.5599975585938</v>
+      </c>
+      <c r="S1240" t="n">
+        <v>73.91000366210938</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="3" t="n">
@@ -37307,6 +38709,12 @@
       <c r="Q1241" t="n">
         <v>98.62000274658203</v>
       </c>
+      <c r="R1241" t="n">
+        <v>468.2099914550781</v>
+      </c>
+      <c r="S1241" t="n">
+        <v>73.16000366210938</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="3" t="n">
@@ -37360,6 +38768,12 @@
       <c r="Q1242" t="n">
         <v>100.3600006103516</v>
       </c>
+      <c r="R1242" t="n">
+        <v>471.3200073242188</v>
+      </c>
+      <c r="S1242" t="n">
+        <v>75.05999755859375</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="3" t="n">
@@ -37413,6 +38827,12 @@
       <c r="Q1243" t="n">
         <v>101.6999969482422</v>
       </c>
+      <c r="R1243" t="n">
+        <v>474.5299987792969</v>
+      </c>
+      <c r="S1243" t="n">
+        <v>74.90000152587891</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="3" t="n">
@@ -37466,6 +38886,12 @@
       <c r="Q1244" t="n">
         <v>102.8399963378906</v>
       </c>
+      <c r="R1244" t="n">
+        <v>473.5199890136719</v>
+      </c>
+      <c r="S1244" t="n">
+        <v>75.36000061035156</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="3" t="n">
@@ -37519,6 +38945,12 @@
       <c r="Q1245" t="n">
         <v>108.120002746582</v>
       </c>
+      <c r="R1245" t="n">
+        <v>473.1600036621094</v>
+      </c>
+      <c r="S1245" t="n">
+        <v>82.25</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="3" t="n">
@@ -37572,6 +39004,12 @@
       <c r="Q1246" t="n">
         <v>112.4599990844727</v>
       </c>
+      <c r="R1246" t="n">
+        <v>459.8299865722656</v>
+      </c>
+      <c r="S1246" t="n">
+        <v>85.25</v>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" s="3" t="n">
@@ -37625,6 +39063,12 @@
       <c r="Q1247" t="n">
         <v>117.7200012207031</v>
       </c>
+      <c r="R1247" t="n">
+        <v>449.1799926757812</v>
+      </c>
+      <c r="S1247" t="n">
+        <v>84.97000122070312</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="3" t="n">
@@ -37678,6 +39122,12 @@
       <c r="Q1248" t="n">
         <v>114.9899978637695</v>
       </c>
+      <c r="R1248" t="n">
+        <v>465.1400146484375</v>
+      </c>
+      <c r="S1248" t="n">
+        <v>84.79000091552734</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="3" t="n">
@@ -37731,6 +39181,12 @@
       <c r="Q1249" t="n">
         <v>117.1699981689453</v>
       </c>
+      <c r="R1249" t="n">
+        <v>468.3200073242188</v>
+      </c>
+      <c r="S1249" t="n">
+        <v>84.43000030517578</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="3" t="n">
@@ -37784,6 +39240,12 @@
       <c r="Q1250" t="n">
         <v>114.7399978637695</v>
       </c>
+      <c r="R1250" t="n">
+        <v>473.0599975585938</v>
+      </c>
+      <c r="S1250" t="n">
+        <v>83.81999969482422</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="3" t="n">
@@ -37837,6 +39299,12 @@
       <c r="Q1251" t="n">
         <v>113.5100021362305</v>
       </c>
+      <c r="R1251" t="n">
+        <v>475.8200073242188</v>
+      </c>
+      <c r="S1251" t="n">
+        <v>84.29000091552734</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="3" t="n">
@@ -37890,6 +39358,12 @@
       <c r="Q1252" t="n">
         <v>112.0599975585938</v>
       </c>
+      <c r="R1252" t="n">
+        <v>470.2799987792969</v>
+      </c>
+      <c r="S1252" t="n">
+        <v>82.79000091552734</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="3" t="n">
@@ -37943,6 +39417,12 @@
       <c r="Q1253" t="n">
         <v>110.7099990844727</v>
       </c>
+      <c r="R1253" t="n">
+        <v>470.4500122070312</v>
+      </c>
+      <c r="S1253" t="n">
+        <v>82.55999755859375</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="3" t="n">
@@ -37996,6 +39476,12 @@
       <c r="Q1254" t="n">
         <v>110.3099975585938</v>
       </c>
+      <c r="R1254" t="n">
+        <v>468.8800048828125</v>
+      </c>
+      <c r="S1254" t="n">
+        <v>81.05999755859375</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="3" t="n">
@@ -38049,6 +39535,12 @@
       <c r="Q1255" t="n">
         <v>114.5599975585938</v>
       </c>
+      <c r="R1255" t="n">
+        <v>476.8500061035156</v>
+      </c>
+      <c r="S1255" t="n">
+        <v>83.94000244140625</v>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="3" t="n">
@@ -38101,6 +39593,34 @@
       </c>
       <c r="Q1256" t="n">
         <v>112.8600006103516</v>
+      </c>
+      <c r="R1256" t="n">
+        <v>469.9800109863281</v>
+      </c>
+      <c r="S1256" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="R1257" t="n">
+        <v>473.6900024414062</v>
+      </c>
+      <c r="S1257" t="n">
+        <v>84.16000366210938</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="3" t="n">
+        <v>45807</v>
+      </c>
+      <c r="R1258" t="n">
+        <v>482.3800048828125</v>
+      </c>
+      <c r="S1258" t="n">
+        <v>80.79000091552734</v>
       </c>
     </row>
   </sheetData>
@@ -38114,7 +39634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38208,6 +39728,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -38241,6 +39771,8 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -38274,6 +39806,8 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -38307,6 +39841,8 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -38340,6 +39876,8 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -38373,6 +39911,8 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -38406,6 +39946,8 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -38439,6 +39981,8 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -38472,6 +40016,8 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -38505,6 +40051,8 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -38538,6 +40086,8 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -38571,6 +40121,8 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -38604,6 +40156,8 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -38637,6 +40191,8 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -38670,6 +40226,8 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -38703,6 +40261,8 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -38736,6 +40296,8 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -38769,6 +40331,8 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -38802,6 +40366,8 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -38835,6 +40401,8 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -38868,6 +40436,8 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -38901,6 +40471,8 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -38934,6 +40506,8 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -38967,6 +40541,8 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -39000,6 +40576,8 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -39033,6 +40611,8 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -39066,6 +40646,8 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -39099,6 +40681,8 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -39132,6 +40716,8 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -39165,6 +40751,8 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
@@ -39198,6 +40786,8 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
@@ -39231,6 +40821,8 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -39264,6 +40856,8 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -39297,6 +40891,8 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -39330,6 +40926,8 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
@@ -39363,6 +40961,8 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
@@ -39396,6 +40996,8 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -39429,6 +41031,8 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
@@ -39462,6 +41066,8 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
@@ -39495,6 +41101,8 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -39528,6 +41136,8 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -39561,6 +41171,8 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -39594,6 +41206,8 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -39627,6 +41241,8 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
@@ -39660,6 +41276,8 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
@@ -39693,6 +41311,8 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
@@ -39726,6 +41346,8 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
@@ -39759,6 +41381,8 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
@@ -39812,6 +41436,12 @@
       <c r="Q49" t="n">
         <v>166.8999938964844</v>
       </c>
+      <c r="R49" t="n">
+        <v>458.3204650878906</v>
+      </c>
+      <c r="S49" t="n">
+        <v>92.39780426025391</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
@@ -39865,6 +41495,12 @@
       <c r="Q50" t="n">
         <v>162.2100067138672</v>
       </c>
+      <c r="R50" t="n">
+        <v>458.232177734375</v>
+      </c>
+      <c r="S50" t="n">
+        <v>105.5186386108398</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
@@ -39918,6 +41554,12 @@
       <c r="Q51" t="n">
         <v>144.4799957275391</v>
       </c>
+      <c r="R51" t="n">
+        <v>531.6317749023438</v>
+      </c>
+      <c r="S51" t="n">
+        <v>91.28797149658203</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
@@ -39971,6 +41613,12 @@
       <c r="Q52" t="n">
         <v>148.5599975585938</v>
       </c>
+      <c r="R52" t="n">
+        <v>557.314697265625</v>
+      </c>
+      <c r="S52" t="n">
+        <v>81.35591888427734</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
@@ -40024,6 +41672,12 @@
       <c r="Q53" t="n">
         <v>164.0800018310547</v>
       </c>
+      <c r="R53" t="n">
+        <v>576.65966796875</v>
+      </c>
+      <c r="S53" t="n">
+        <v>81.11337280273438</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
@@ -40077,6 +41731,12 @@
       <c r="Q54" t="n">
         <v>144.0700073242188</v>
       </c>
+      <c r="R54" t="n">
+        <v>538.6701049804688</v>
+      </c>
+      <c r="S54" t="n">
+        <v>73.89935302734375</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
@@ -40130,6 +41790,12 @@
       <c r="Q55" t="n">
         <v>137.1799926757812</v>
       </c>
+      <c r="R55" t="n">
+        <v>522.2550048828125</v>
+      </c>
+      <c r="S55" t="n">
+        <v>73.43220520019531</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
@@ -40183,6 +41849,12 @@
       <c r="Q56" t="n">
         <v>120.7900009155273</v>
       </c>
+      <c r="R56" t="n">
+        <v>482.3793640136719</v>
+      </c>
+      <c r="S56" t="n">
+        <v>72.01267242431641</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
@@ -40236,6 +41908,12 @@
       <c r="Q57" t="n">
         <v>115.9499969482422</v>
       </c>
+      <c r="R57" t="n">
+        <v>459.5578308105469</v>
+      </c>
+      <c r="S57" t="n">
+        <v>80.80612945556641</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
@@ -40289,6 +41967,12 @@
       <c r="Q58" t="n">
         <v>99.86000061035156</v>
       </c>
+      <c r="R58" t="n">
+        <v>447.0699768066406</v>
+      </c>
+      <c r="S58" t="n">
+        <v>76.50909423828125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
@@ -40342,6 +42026,12 @@
       <c r="Q59" t="n">
         <v>102.7399978637695</v>
       </c>
+      <c r="R59" t="n">
+        <v>446.7099914550781</v>
+      </c>
+      <c r="S59" t="n">
+        <v>72.69999694824219</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
@@ -40395,6 +42085,12 @@
       <c r="Q60" t="n">
         <v>97.34999847412109</v>
       </c>
+      <c r="R60" t="n">
+        <v>477.75</v>
+      </c>
+      <c r="S60" t="n">
+        <v>71.66999816894531</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
@@ -40447,6 +42143,12 @@
       </c>
       <c r="Q61" t="n">
         <v>112.8600006103516</v>
+      </c>
+      <c r="R61" t="n">
+        <v>482.3800048828125</v>
+      </c>
+      <c r="S61" t="n">
+        <v>80.79000091552734</v>
       </c>
     </row>
   </sheetData>
@@ -40862,7 +42564,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -40891,10 +42593,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>184126193664</v>
+        <v>179537641472</v>
       </c>
       <c r="I2" t="n">
-        <v>180412678144</v>
+        <v>176959078400</v>
       </c>
       <c r="J2" t="n">
         <v>1610103008</v>
@@ -40903,22 +42605,22 @@
         <v>1621400064</v>
       </c>
       <c r="L2" t="n">
-        <v>82.89</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>22.27</v>
+        <v>21.71</v>
       </c>
       <c r="N2" t="n">
-        <v>6.64</v>
+        <v>6.47</v>
       </c>
       <c r="O2" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="P2" t="n">
-        <v>30.69</v>
+        <v>30.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.5</v>
+        <v>6.38</v>
       </c>
       <c r="R2" t="n">
         <v>0.5358000000000001</v>
@@ -40993,7 +42695,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>113.56</v>
+        <v>110.73</v>
       </c>
       <c r="AQ2" t="n">
         <v>127.53</v>
@@ -41013,7 +42715,7 @@
         <v>1.82</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="AW2" t="n">
         <v>187.28</v>
@@ -41022,10 +42724,10 @@
         <v>76.48</v>
       </c>
       <c r="AY2" t="n">
-        <v>101.37</v>
+        <v>101.65</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126.31</v>
+        <v>126.08</v>
       </c>
       <c r="BA2" t="n">
         <v>1.13</v>
@@ -41034,7 +42736,7 @@
         <v>0.03</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.2874608699457799</v>
+        <v>0.2865723644830411</v>
       </c>
       <c r="BD2" t="n">
         <v>0.2872382298812863</v>
@@ -41043,10 +42745,10 @@
         <v>-0.08803528468808552</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.081435436128805</v>
+        <v>1.079277648934635</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.2640365093821723</v>
+        <v>0.2635103530782931</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
@@ -41054,25 +42756,25 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5868</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0385</v>
+        <v>0.0417</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.7436</v>
+        <v>0.6944</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1864</v>
+        <v>0.1736</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.5245</v>
+        <v>0.5208</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5696</v>
       </c>
     </row>
     <row r="3">
@@ -41083,7 +42785,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -41112,10 +42814,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>109152010240</v>
+        <v>108812910592</v>
       </c>
       <c r="I3" t="n">
-        <v>108387352576</v>
+        <v>100663435264</v>
       </c>
       <c r="J3" t="n">
         <v>1029428560</v>
@@ -41124,22 +42826,22 @@
         <v>1255920000</v>
       </c>
       <c r="L3" t="n">
-        <v>36.67</v>
+        <v>36.56</v>
       </c>
       <c r="M3" t="n">
-        <v>8.93</v>
+        <v>8.9</v>
       </c>
       <c r="N3" t="n">
-        <v>14.68</v>
+        <v>14.63</v>
       </c>
       <c r="O3" t="n">
-        <v>10.79</v>
+        <v>10.76</v>
       </c>
       <c r="P3" t="n">
-        <v>34.01</v>
+        <v>31.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.58</v>
+        <v>13.54</v>
       </c>
       <c r="R3" t="n">
         <v>0.6409</v>
@@ -41211,7 +42913,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>86.91</v>
+        <v>86.64</v>
       </c>
       <c r="AQ3" t="n">
         <v>106</v>
@@ -41231,7 +42933,7 @@
         <v>1.68</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AW3" t="n">
         <v>133.57</v>
@@ -41240,10 +42942,10 @@
         <v>59.43</v>
       </c>
       <c r="AY3" t="n">
-        <v>82.48</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>95.75</v>
+        <v>95.77</v>
       </c>
       <c r="BA3" t="n">
         <v>2.24</v>
@@ -41252,7 +42954,7 @@
         <v>0.02</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.3069702322362702</v>
+        <v>0.3060145949805726</v>
       </c>
       <c r="BD3" t="n">
         <v>0.3067307667236328</v>
@@ -41261,10 +42963,10 @@
         <v>-0.09680983010039312</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.135100265063903</v>
+        <v>1.132834331036395</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.2661590548797659</v>
+        <v>0.2656289196584137</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
@@ -41287,10 +42989,10 @@
         <v>0.2503</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.5245</v>
+        <v>0.5208</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5696</v>
       </c>
     </row>
     <row r="4">
@@ -41301,7 +43003,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -41330,34 +43032,34 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>24140492800</v>
+        <v>24307591168</v>
       </c>
       <c r="I4" t="n">
-        <v>44539441152</v>
+        <v>44578607104</v>
       </c>
       <c r="J4" t="n">
-        <v>649366847</v>
+        <v>649386429</v>
       </c>
       <c r="K4" t="n">
         <v>652728000</v>
       </c>
       <c r="L4" t="n">
-        <v>24.99</v>
+        <v>25.16</v>
       </c>
       <c r="M4" t="n">
-        <v>21.26</v>
+        <v>21.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="P4" t="n">
-        <v>13.25</v>
+        <v>13.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="R4" t="n">
         <v>0.4514</v>
@@ -41420,28 +43122,28 @@
         <v>2011000064</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0237</v>
+        <v>0.0236</v>
       </c>
       <c r="AM4" t="n">
         <v>0.008800000000000001</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0279</v>
+        <v>0.0274</v>
       </c>
       <c r="AO4" t="n">
         <v>0.5608</v>
       </c>
       <c r="AP4" t="n">
-        <v>36.98</v>
+        <v>37.24</v>
       </c>
       <c r="AQ4" t="n">
-        <v>38.02</v>
+        <v>38.44</v>
       </c>
       <c r="AR4" t="n">
         <v>43</v>
       </c>
       <c r="AS4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
@@ -41449,10 +43151,10 @@
         </is>
       </c>
       <c r="AU4" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AW4" t="n">
         <v>39.31</v>
@@ -41461,10 +43163,10 @@
         <v>25.41</v>
       </c>
       <c r="AY4" t="n">
-        <v>37.05</v>
+        <v>37.11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>32.32</v>
+        <v>32.43</v>
       </c>
       <c r="BA4" t="n">
         <v>5.59</v>
@@ -41473,19 +43175,19 @@
         <v>0.06</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.4423858396877369</v>
+        <v>0.4459802647952782</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.4420242533416754</v>
+        <v>0.447075668022157</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.08649951113128873</v>
+        <v>-0.08649958246928591</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.94445094032453</v>
+        <v>1.958106850257962</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.2000851396370479</v>
+        <v>0.1996942507989018</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
@@ -41493,51 +43195,51 @@
         </is>
       </c>
       <c r="BI4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6131</v>
+        <v>0.6101</v>
       </c>
       <c r="BK4" t="n">
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.5</v>
+        <v>0.5714</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.2261</v>
+        <v>0.2203</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.5925</v>
+        <v>0.5821</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.5929</v>
+        <v>0.5894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>FCX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The Cooper Companies, Inc.</t>
+          <t>Freeport-McMoRan Inc.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Medical Instruments &amp; Supplies</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -41547,122 +43249,122 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.coopercos.com</t>
+          <t>https://fcx.com</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>16089538560</v>
+        <v>55264972800</v>
       </c>
       <c r="I5" t="n">
-        <v>18461691904</v>
+        <v>71809982464</v>
       </c>
       <c r="J5" t="n">
-        <v>198607312</v>
+        <v>1427324535</v>
       </c>
       <c r="K5" t="n">
-        <v>199956992</v>
+        <v>1436199936</v>
       </c>
       <c r="L5" t="n">
-        <v>38.87</v>
+        <v>31.54</v>
       </c>
       <c r="M5" t="n">
-        <v>19.72</v>
+        <v>17.81</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="O5" t="n">
-        <v>1.98</v>
+        <v>3.13</v>
       </c>
       <c r="P5" t="n">
-        <v>16.69</v>
+        <v>7.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.7</v>
+        <v>2.89</v>
       </c>
       <c r="R5" t="n">
-        <v>0.67</v>
+        <v>0.3846</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2816</v>
+        <v>0.3651</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1887</v>
+        <v>0.2275</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1057</v>
+        <v>0.0711</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>3928499968</v>
+        <v>24861999104</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.036</v>
+        <v>-0.094</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.08</v>
+        <v>2.16</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.271</v>
+        <v>-0.25</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.284</v>
+        <v>-0.256</v>
       </c>
       <c r="AD5" t="n">
-        <v>100900000</v>
+        <v>4384999936</v>
       </c>
       <c r="AE5" t="n">
-        <v>2539899904</v>
+        <v>9404000256</v>
       </c>
       <c r="AF5" t="n">
-        <v>31.25</v>
+        <v>32.19</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="AI5" t="n">
-        <v>40.66</v>
+        <v>12.31</v>
       </c>
       <c r="AJ5" t="n">
-        <v>243000000</v>
+        <v>1922749952</v>
       </c>
       <c r="AK5" t="n">
-        <v>777200000</v>
+        <v>6321999872</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0002</v>
+        <v>0.0373</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>0.4918</v>
       </c>
       <c r="AP5" t="n">
-        <v>80.45999999999999</v>
+        <v>38.48</v>
       </c>
       <c r="AQ5" t="n">
-        <v>105.55</v>
+        <v>44.17</v>
       </c>
       <c r="AR5" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AS5" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
@@ -41670,95 +43372,95 @@
         </is>
       </c>
       <c r="AU5" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.08</v>
+        <v>1.63</v>
       </c>
       <c r="AW5" t="n">
-        <v>112.38</v>
+        <v>53.15</v>
       </c>
       <c r="AX5" t="n">
-        <v>69.81</v>
+        <v>27.66</v>
       </c>
       <c r="AY5" t="n">
-        <v>80.48999999999999</v>
+        <v>36.9</v>
       </c>
       <c r="AZ5" t="n">
-        <v>93.98</v>
+        <v>40.9</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.3224660307590999</v>
+        <v>0.2872982450420314</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.3222130591506933</v>
+        <v>0.287965977827072</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.1692930577057772</v>
+        <v>-0.05837426076034546</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.168891558585751</v>
+        <v>1.472064439806596</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.2722293450901295</v>
+        <v>0.1832686592888241</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>SMA_Cross_Signal</t>
+          <t>RSI_Signal</t>
         </is>
       </c>
       <c r="BI5" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.5899</v>
+        <v>0.6064000000000001</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.1798</v>
+        <v>0.2129</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.5448</v>
+        <v>0.4346</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.5749</v>
+        <v>0.5429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>FIS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Freeport-McMoRan Inc.</t>
+          <t>Fidelity National Information Services, Inc.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Information Technology Services</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -41768,122 +43470,122 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://fcx.com</t>
+          <t>https://www.fisglobal.com</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>55731740672</v>
+        <v>41826697216</v>
       </c>
       <c r="I6" t="n">
-        <v>72398831616</v>
+        <v>53112700928</v>
       </c>
       <c r="J6" t="n">
-        <v>1427324535</v>
+        <v>524018518</v>
       </c>
       <c r="K6" t="n">
-        <v>1436199936</v>
+        <v>525395008</v>
       </c>
       <c r="L6" t="n">
-        <v>31.81</v>
+        <v>50.71</v>
       </c>
       <c r="M6" t="n">
-        <v>17.97</v>
+        <v>13.94</v>
       </c>
       <c r="N6" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="P6" t="n">
-        <v>7.98</v>
+        <v>19.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.91</v>
+        <v>5.21</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3846</v>
+        <v>0.3703</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3651</v>
+        <v>0.265</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2275</v>
+        <v>0.1378</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0711</v>
+        <v>0.0806</v>
       </c>
       <c r="V6" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="X6" t="n">
-        <v>24861999104</v>
+        <v>10190999552</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.094</v>
+        <v>0.026</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.16</v>
+        <v>5.71</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.25</v>
+        <v>-0.88</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.256</v>
+        <v>-0.891</v>
       </c>
       <c r="AD6" t="n">
-        <v>4384999936</v>
+        <v>805000000</v>
       </c>
       <c r="AE6" t="n">
-        <v>9404000256</v>
+        <v>12087000064</v>
       </c>
       <c r="AF6" t="n">
-        <v>32.19</v>
+        <v>80.22</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.32</v>
+        <v>0.63</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.96</v>
+        <v>0.45</v>
       </c>
       <c r="AI6" t="n">
-        <v>12.31</v>
+        <v>28.64</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1922749952</v>
+        <v>1938875008</v>
       </c>
       <c r="AK6" t="n">
-        <v>6321999872</v>
+        <v>2865999872</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0154</v>
+        <v>0.0201</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0373</v>
+        <v>0.0204</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.4918</v>
+        <v>0.9427</v>
       </c>
       <c r="AP6" t="n">
-        <v>38.8</v>
+        <v>79.61</v>
       </c>
       <c r="AQ6" t="n">
-        <v>44.17</v>
+        <v>88.02</v>
       </c>
       <c r="AR6" t="n">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="AS6" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
@@ -41891,95 +43593,95 @@
         </is>
       </c>
       <c r="AU6" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.65</v>
+        <v>1.08</v>
       </c>
       <c r="AW6" t="n">
-        <v>53.29</v>
+        <v>91.98</v>
       </c>
       <c r="AX6" t="n">
-        <v>27.66</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="AY6" t="n">
-        <v>36.96</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="AZ6" t="n">
-        <v>40.92</v>
+        <v>80.09</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.13</v>
+        <v>2.9</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.288189430402118</v>
+        <v>0.3582830168141997</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.2879661656208037</v>
+        <v>0.3591373620758056</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.05837425090957915</v>
+        <v>-0.1196337454893781</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.475020905211077</v>
+        <v>1.349911806804066</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.1836330152265594</v>
+        <v>0.2511357061919031</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>RSI_Signal</t>
+          <t>SMA_Cross_Signal</t>
         </is>
       </c>
       <c r="BI6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.6064000000000001</v>
+        <v>0.6643</v>
       </c>
       <c r="BK6" t="n">
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.2129</v>
+        <v>0.3286</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.3571</v>
+        <v>0.5208</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.5327</v>
+        <v>0.5696</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fidelity National Information Services, Inc.</t>
+          <t>Gilead Sciences, Inc.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Information Technology Services</t>
+          <t>Drug Manufacturers - General</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -41989,122 +43691,116 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.fisglobal.com</t>
+          <t>https://www.gilead.com</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>41112158208</v>
+        <v>136931811328</v>
       </c>
       <c r="I7" t="n">
-        <v>53301841920</v>
+        <v>153088720896</v>
       </c>
       <c r="J7" t="n">
-        <v>524013264</v>
+        <v>1241354188</v>
       </c>
       <c r="K7" t="n">
-        <v>525395008</v>
+        <v>1243929984</v>
       </c>
       <c r="L7" t="n">
-        <v>49.84</v>
+        <v>23.13</v>
       </c>
       <c r="M7" t="n">
-        <v>13.7</v>
+        <v>14.82</v>
       </c>
       <c r="N7" t="n">
-        <v>4.03</v>
+        <v>4.77</v>
       </c>
       <c r="O7" t="n">
-        <v>2.73</v>
+        <v>7.15</v>
       </c>
       <c r="P7" t="n">
-        <v>19.73</v>
+        <v>11.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.23</v>
+        <v>5.33</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3703</v>
+        <v>0.7829</v>
       </c>
       <c r="S7" t="n">
-        <v>0.265</v>
+        <v>0.4776</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1378</v>
+        <v>0.3849</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0806</v>
+        <v>0.2076</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="X7" t="n">
-        <v>10190999552</v>
+        <v>28735000576</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.026</v>
+        <v>-0.003</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.57</v>
+        <v>4.76</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>-0.891</v>
+        <v>7.43</v>
       </c>
       <c r="AD7" t="n">
-        <v>805000000</v>
+        <v>8711000064</v>
       </c>
       <c r="AE7" t="n">
-        <v>12087000064</v>
+        <v>24952000512</v>
       </c>
       <c r="AF7" t="n">
-        <v>80.22</v>
+        <v>130.79</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.63</v>
+        <v>1.37</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.45</v>
+        <v>1.06</v>
       </c>
       <c r="AI7" t="n">
-        <v>28.64</v>
+        <v>15.39</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1938875008</v>
+        <v>9989000192</v>
       </c>
       <c r="AK7" t="n">
-        <v>2865999872</v>
+        <v>10366000128</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.02</v>
+        <v>0.0287</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.016</v>
+        <v>0.0316</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0203</v>
+        <v>0.0396</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9427</v>
+        <v>0.6513</v>
       </c>
       <c r="AP7" t="n">
-        <v>78.25</v>
+        <v>110.08</v>
       </c>
       <c r="AQ7" t="n">
-        <v>88.02</v>
+        <v>115.04</v>
       </c>
       <c r="AR7" t="n">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AS7" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
@@ -42112,95 +43808,95 @@
         </is>
       </c>
       <c r="AU7" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.1</v>
+        <v>0.31</v>
       </c>
       <c r="AW7" t="n">
-        <v>91.98</v>
+        <v>119.96</v>
       </c>
       <c r="AX7" t="n">
-        <v>66.51000000000001</v>
+        <v>62.69</v>
       </c>
       <c r="AY7" t="n">
-        <v>75.90000000000001</v>
+        <v>105.64</v>
       </c>
       <c r="AZ7" t="n">
-        <v>80.06999999999999</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="BA7" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.3365253063861462</v>
+        <v>0.4294988475163686</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.3362599732742313</v>
+        <v>0.4305480910034172</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.119634508918456</v>
+        <v>-0.1787746031010032</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.286588825196458</v>
+        <v>1.554255355901026</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.2511367351539031</v>
+        <v>0.2517078065655479</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>SMA_Cross_Signal</t>
+          <t>EMA_Cross_Signal</t>
         </is>
       </c>
       <c r="BI7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.6643</v>
+        <v>0.6143</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>1</v>
+        <v>0.6364</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.3286</v>
+        <v>0.2286</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.5245</v>
+        <v>0.5268</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gilead Sciences, Inc.</t>
+          <t>Lockheed Martin Corporation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Drug Manufacturers - General</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -42210,116 +43906,122 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.gilead.com</t>
+          <t>https://www.lockheedmartin.com</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>137423159296</v>
+        <v>113019707392</v>
       </c>
       <c r="I8" t="n">
-        <v>151048667136</v>
+        <v>131520684032</v>
       </c>
       <c r="J8" t="n">
-        <v>1241354188</v>
+        <v>172732348</v>
       </c>
       <c r="K8" t="n">
-        <v>1243929984</v>
+        <v>234296000</v>
       </c>
       <c r="L8" t="n">
-        <v>23.21</v>
+        <v>20.79</v>
       </c>
       <c r="M8" t="n">
-        <v>14.87</v>
+        <v>17.16</v>
       </c>
       <c r="N8" t="n">
-        <v>4.78</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>7.18</v>
+        <v>16.82</v>
       </c>
       <c r="P8" t="n">
-        <v>11.01</v>
+        <v>15.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.26</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7829</v>
+        <v>0.1023</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4776</v>
+        <v>0.121</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3849</v>
+        <v>0.1269</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2076</v>
+        <v>0.0766</v>
       </c>
       <c r="V8" t="n">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="W8" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="X8" t="n">
-        <v>28735000576</v>
+        <v>71810998272</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.003</v>
+        <v>0.045</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.76</v>
+        <v>23.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.43</v>
+        <v>28.11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.108</v>
       </c>
       <c r="AD8" t="n">
-        <v>8711000064</v>
+        <v>1803000064</v>
       </c>
       <c r="AE8" t="n">
-        <v>24952000512</v>
+        <v>20303998976</v>
       </c>
       <c r="AF8" t="n">
-        <v>130.79</v>
+        <v>303.82</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AI8" t="n">
-        <v>15.39</v>
+        <v>28.68</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9989000192</v>
+        <v>5291125248</v>
       </c>
       <c r="AK8" t="n">
-        <v>10366000128</v>
+        <v>6745999872</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0291</v>
+        <v>0.0274</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0316</v>
+        <v>0.132</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0397</v>
+        <v>0.0265</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.6513</v>
+        <v>0.556</v>
       </c>
       <c r="AP8" t="n">
-        <v>110.48</v>
+        <v>482.38</v>
       </c>
       <c r="AQ8" t="n">
-        <v>115.04</v>
+        <v>524.23</v>
       </c>
       <c r="AR8" t="n">
-        <v>140</v>
+        <v>670</v>
       </c>
       <c r="AS8" t="n">
-        <v>92</v>
+        <v>408</v>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
@@ -42327,95 +44029,95 @@
         </is>
       </c>
       <c r="AU8" t="n">
-        <v>1.87</v>
+        <v>2.29</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="AW8" t="n">
-        <v>119.96</v>
+        <v>618.95</v>
       </c>
       <c r="AX8" t="n">
-        <v>62.07</v>
+        <v>418.88</v>
       </c>
       <c r="AY8" t="n">
-        <v>105.57</v>
+        <v>463.07</v>
       </c>
       <c r="AZ8" t="n">
-        <v>94.98</v>
+        <v>506.99</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.68</v>
+        <v>1.59</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.4442962985871275</v>
+        <v>0.2959486179548991</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.4439329251403803</v>
+        <v>0.2966386692504883</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.1787746031010032</v>
+        <v>-0.1322420604513854</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.595889258713576</v>
+        <v>1.295685672189338</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.2519767242273359</v>
+        <v>0.2197869821713275</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>EMA_Cross_Signal</t>
+          <t>SMA_Cross_Signal</t>
         </is>
       </c>
       <c r="BI8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.6125</v>
+        <v>0.6087</v>
       </c>
       <c r="BK8" t="n">
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.5833</v>
+        <v>0.8</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.225</v>
+        <v>0.2174</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.5448</v>
+        <v>0.4687</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.5749</v>
+        <v>0.5612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nasdaq, Inc.</t>
+          <t>Lam Research Corporation</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Financial Data &amp; Stock Exchanges</t>
+          <t>Semiconductor Equipment &amp; Materials</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -42425,122 +44127,122 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.nasdaq.com</t>
+          <t>https://www.lamresearch.com</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>47488499712</v>
+        <v>103340105728</v>
       </c>
       <c r="I9" t="n">
-        <v>56471740416</v>
+        <v>102373564416</v>
       </c>
       <c r="J9" t="n">
-        <v>512001661</v>
+        <v>1274385263</v>
       </c>
       <c r="K9" t="n">
-        <v>574121984</v>
+        <v>1279120000</v>
       </c>
       <c r="L9" t="n">
-        <v>37.43</v>
+        <v>22.5</v>
       </c>
       <c r="M9" t="n">
-        <v>26.34</v>
+        <v>18.92</v>
       </c>
       <c r="N9" t="n">
-        <v>6.08</v>
+        <v>6.03</v>
       </c>
       <c r="O9" t="n">
-        <v>4.11</v>
+        <v>10.9</v>
       </c>
       <c r="P9" t="n">
-        <v>20.64</v>
+        <v>18.07</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.22</v>
+        <v>5.97</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6102</v>
+        <v>0.4806</v>
       </c>
       <c r="S9" t="n">
-        <v>0.35</v>
+        <v>0.3307</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2737</v>
+        <v>0.3309</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1635</v>
+        <v>0.2718</v>
       </c>
       <c r="V9" t="n">
-        <v>0.11</v>
+        <v>0.53</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="X9" t="n">
-        <v>7816000000</v>
+        <v>17135705088</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.249</v>
+        <v>0.244</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.21</v>
+        <v>3.59</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.14</v>
+        <v>4.27</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7</v>
+        <v>0.411</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="AD9" t="n">
-        <v>705000000</v>
+        <v>5450718208</v>
       </c>
       <c r="AE9" t="n">
-        <v>9774000128</v>
+        <v>4484340224</v>
       </c>
       <c r="AF9" t="n">
-        <v>84.59</v>
+        <v>47.15</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.98</v>
+        <v>2.45</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.21</v>
+        <v>1.58</v>
       </c>
       <c r="AI9" t="n">
-        <v>20.12</v>
+        <v>7.41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1834000000</v>
+        <v>2826895104</v>
       </c>
       <c r="AK9" t="n">
-        <v>2072000000</v>
+        <v>4481505792</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0131</v>
+        <v>0.0114</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.0108</v>
+        <v>0.0092</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0134</v>
+        <v>0.0109</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.4344</v>
+        <v>0.2479</v>
       </c>
       <c r="AP9" t="n">
-        <v>82.72</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="AQ9" t="n">
-        <v>84</v>
+        <v>90.27</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="AS9" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
@@ -42548,69 +44250,69 @@
         </is>
       </c>
       <c r="AU9" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="AW9" t="n">
-        <v>84.15000000000001</v>
+        <v>113</v>
       </c>
       <c r="AX9" t="n">
-        <v>58.28</v>
+        <v>56.32</v>
       </c>
       <c r="AY9" t="n">
-        <v>76.39</v>
+        <v>74.11</v>
       </c>
       <c r="AZ9" t="n">
-        <v>76.52</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.51</v>
+        <v>2.34</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.3280924048724454</v>
+        <v>0.2744881022804371</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.3278344985275268</v>
+        <v>0.275123004146576</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.1387555804762111</v>
+        <v>-0.093985952974312</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.335290445646229</v>
+        <v>1.166436420445923</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.2346613116784286</v>
+        <v>0.2306126521729435</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>EMA_Cross_Signal</t>
+          <t>RSI_Signal</t>
         </is>
       </c>
       <c r="BI9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.6449</v>
+        <v>0.665</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.2898</v>
+        <v>0.33</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.3769</v>
+        <v>0.5208</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.5488</v>
+        <v>0.5696</v>
       </c>
     </row>
     <row r="10">
@@ -42621,7 +44323,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -42650,10 +44352,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>20649256960</v>
+        <v>20805769216</v>
       </c>
       <c r="I10" t="n">
-        <v>19357478912</v>
+        <v>19696087040</v>
       </c>
       <c r="J10" t="n">
         <v>2879740</v>
@@ -42662,22 +44364,22 @@
         <v>2923830</v>
       </c>
       <c r="L10" t="n">
-        <v>14.56</v>
+        <v>14.66</v>
       </c>
       <c r="M10" t="n">
-        <v>13.63</v>
+        <v>13.74</v>
       </c>
       <c r="N10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O10" t="n">
-        <v>5.26</v>
+        <v>5.3</v>
       </c>
       <c r="P10" t="n">
-        <v>9.24</v>
+        <v>9.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
         <v>0.25</v>
@@ -42704,7 +44406,7 @@
         <v>0.023</v>
       </c>
       <c r="Z10" t="n">
-        <v>485.11</v>
+        <v>485.31</v>
       </c>
       <c r="AA10" t="n">
         <v>518.05</v>
@@ -42752,7 +44454,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>7062.4</v>
+        <v>7115.93</v>
       </c>
       <c r="AQ10" t="n">
         <v>7700</v>
@@ -42769,7 +44471,7 @@
         </is>
       </c>
       <c r="AV10" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
         <v>9964.77</v>
@@ -42778,10 +44480,10 @@
         <v>6562.85</v>
       </c>
       <c r="AY10" t="n">
-        <v>7170.49</v>
+        <v>7165.62</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8272.6</v>
+        <v>8258.34</v>
       </c>
       <c r="BA10" t="n">
         <v>4.92</v>
@@ -42790,19 +44492,19 @@
         <v>0.04</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.3757891573864645</v>
+        <v>0.3710517664118587</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.375488769531249</v>
+        <v>0.3719405019531239</v>
       </c>
       <c r="BE10" t="n">
         <v>-0.1032691821221486</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.506447764318739</v>
+        <v>1.492007258969853</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.2311334089376201</v>
+        <v>0.2307048263971671</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
@@ -42825,10 +44527,10 @@
         <v>0.3185</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.4936</v>
+        <v>0.5081</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.5672</v>
+        <v>0.5678</v>
       </c>
     </row>
     <row r="11">
@@ -42839,7 +44541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -42868,10 +44570,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>273636212736</v>
+        <v>281091932160</v>
       </c>
       <c r="I11" t="n">
-        <v>325454692352</v>
+        <v>328256421888</v>
       </c>
       <c r="J11" t="n">
         <v>1552579194</v>
@@ -42880,22 +44582,22 @@
         <v>1556519936</v>
       </c>
       <c r="L11" t="n">
-        <v>27.69</v>
+        <v>28.39</v>
       </c>
       <c r="M11" t="n">
-        <v>24.42</v>
+        <v>25.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7.13</v>
+        <v>7.32</v>
       </c>
       <c r="O11" t="n">
-        <v>-25.1</v>
+        <v>-25.78</v>
       </c>
       <c r="P11" t="n">
-        <v>20.04</v>
+        <v>20.21</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.48</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>0.6568000000000001</v>
@@ -42919,7 +44621,7 @@
         <v>0.058</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.35</v>
+        <v>6.36</v>
       </c>
       <c r="AA11" t="n">
         <v>7.2</v>
@@ -42952,19 +44654,19 @@
         <v>11626000384</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0302</v>
+        <v>0.0299</v>
       </c>
       <c r="AM11" t="n">
         <v>0.05400000000000001</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0515</v>
+        <v>0.051</v>
       </c>
       <c r="AO11" t="n">
         <v>0.8427</v>
       </c>
       <c r="AP11" t="n">
-        <v>175.8</v>
+        <v>180.59</v>
       </c>
       <c r="AQ11" t="n">
         <v>176.03</v>
@@ -42984,19 +44686,19 @@
         <v>1.94</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="AW11" t="n">
-        <v>179.83</v>
+        <v>181.36</v>
       </c>
       <c r="AX11" t="n">
         <v>98.93000000000001</v>
       </c>
       <c r="AY11" t="n">
-        <v>163.62</v>
+        <v>164.63</v>
       </c>
       <c r="AZ11" t="n">
-        <v>137.99</v>
+        <v>138.62</v>
       </c>
       <c r="BA11" t="n">
         <v>2.06</v>
@@ -43005,19 +44707,19 @@
         <v>0.01</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.3416665476865799</v>
+        <v>0.3610465793455273</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.3413966688690175</v>
+        <v>0.361908346878052</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.2340922851367602</v>
+        <v>-0.2340921653574727</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.310546004824287</v>
+        <v>1.367342911356464</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2498933890791153</v>
+        <v>0.2497867996254251</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
@@ -43025,25 +44727,25 @@
         </is>
       </c>
       <c r="BI11" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.6282</v>
+        <v>0.6236</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0138</v>
+        <v>0.014</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.7171999999999999</v>
+        <v>0.7063</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.2565</v>
+        <v>0.2471</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.5202</v>
+        <v>0.5321</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5664</v>
       </c>
     </row>
   </sheetData>
